--- a/data/cycle_0/20230327_Compilation_StartingDataset.xlsx
+++ b/data/cycle_0/20230327_Compilation_StartingDataset.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20204055\Documents\03 - Third year PhD\01 - Results\20230327 Starting Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BCD316-6D10-4A5F-B2E4-204021BA4EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EE16FA-3F69-4D0A-B082-830E218F44E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DoE Dataset" sheetId="2" r:id="rId1"/>
     <sheet name="Comparison Wyatt" sheetId="3" r:id="rId2"/>
+    <sheet name="Data From No Filter" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="65">
   <si>
     <t>stdev</t>
   </si>
@@ -209,6 +210,30 @@
   <si>
     <t>Response values from NoFilter Datasets</t>
   </si>
+  <si>
+    <t>stdv</t>
+  </si>
+  <si>
+    <t>Normalized</t>
+  </si>
+  <si>
+    <t>Corrected</t>
+  </si>
+  <si>
+    <t>Old Coeff</t>
+  </si>
+  <si>
+    <t>New Coeff (96 well plate)</t>
+  </si>
+  <si>
+    <t>New Coeff (384 well plate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrected </t>
+  </si>
+  <si>
+    <t>Uptake</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +244,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +302,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -328,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -405,11 +445,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -488,7 +539,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,12 +556,71 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,198 +738,192 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'DoE Dataset'!$R$5:$R$34</c:f>
+                <c:f>'DoE Dataset'!$S$5:$S$34</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="30"/>
                   <c:pt idx="0">
-                    <c:v>7.0902969161043633E-2</c:v>
+                    <c:v>8.2791744366636874E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.14774825159266566</c:v>
+                    <c:v>0.14497495736931451</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.10518459019234293</c:v>
+                    <c:v>0.12232105779082904</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.1613623317644429</c:v>
+                    <c:v>0.17098919982251196</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.8318528764176525E-2</c:v>
+                    <c:v>3.6884987118559642E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.22120148231057002</c:v>
+                    <c:v>0.21112496573057193</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.807576033127213E-2</c:v>
+                    <c:v>3.3662861577476673E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.10596205863289816</c:v>
+                    <c:v>0.11502842152203858</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.18088452033619828</c:v>
+                    <c:v>0.15654517534280679</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.25343800101171265</c:v>
+                    <c:v>0.22541039856994885</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.13925238620622202</c:v>
+                    <c:v>0.11290639709463125</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.41664984294117008</c:v>
+                    <c:v>0.33822852597947445</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.12280000633638349</c:v>
+                    <c:v>9.7368015270887301E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.29039616233498072</c:v>
+                    <c:v>0.27110752772714508</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.17440879065546394</c:v>
+                    <c:v>0.1388377543796967</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.22313068402766689</c:v>
+                    <c:v>9.0799886861408663E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>2.0782097926358754</c:v>
+                    <c:v>0.70639542310139525</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.1669725065131913</c:v>
+                    <c:v>0.2373834566733192</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0.31860554880595776</c:v>
+                    <c:v>0.19060325959611799</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>8.5333268168257495E-2</c:v>
+                    <c:v>3.1153566835645428E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>0.63453457921989276</c:v>
+                    <c:v>0.36959434192747287</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.2676645369959048</c:v>
+                    <c:v>0.56337991933090259</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1.0131407499099725</c:v>
+                    <c:v>0.44998065136822013</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>1.3215019321464152</c:v>
+                    <c:v>0.52192038732621693</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>0.36867287615520378</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0.43935448742070532</c:v>
+                    <c:v>0.14112823850784598</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>0.49214167267001901</c:v>
+                    <c:v>0.1946851956683946</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>0.41646579133409767</c:v>
+                    <c:v>0.20218596225630467</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>0.58621726416946807</c:v>
+                    <c:v>8.7833174535619479E-2</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>1.3944203386014813</c:v>
+                    <c:v>0.61953169481483872</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'DoE Dataset'!$R$5:$R$34</c:f>
+                <c:f>'DoE Dataset'!$S$5:$S$34</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="30"/>
                   <c:pt idx="0">
-                    <c:v>7.0902969161043633E-2</c:v>
+                    <c:v>8.2791744366636874E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.14774825159266566</c:v>
+                    <c:v>0.14497495736931451</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.10518459019234293</c:v>
+                    <c:v>0.12232105779082904</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.1613623317644429</c:v>
+                    <c:v>0.17098919982251196</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.8318528764176525E-2</c:v>
+                    <c:v>3.6884987118559642E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.22120148231057002</c:v>
+                    <c:v>0.21112496573057193</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.807576033127213E-2</c:v>
+                    <c:v>3.3662861577476673E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.10596205863289816</c:v>
+                    <c:v>0.11502842152203858</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0.18088452033619828</c:v>
+                    <c:v>0.15654517534280679</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0.25343800101171265</c:v>
+                    <c:v>0.22541039856994885</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.13925238620622202</c:v>
+                    <c:v>0.11290639709463125</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>0.41664984294117008</c:v>
+                    <c:v>0.33822852597947445</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>0.12280000633638349</c:v>
+                    <c:v>9.7368015270887301E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>0.29039616233498072</c:v>
+                    <c:v>0.27110752772714508</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>0.17440879065546394</c:v>
+                    <c:v>0.1388377543796967</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>0.22313068402766689</c:v>
+                    <c:v>9.0799886861408663E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>2.0782097926358754</c:v>
+                    <c:v>0.70639542310139525</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.1669725065131913</c:v>
+                    <c:v>0.2373834566733192</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0.31860554880595776</c:v>
+                    <c:v>0.19060325959611799</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>8.5333268168257495E-2</c:v>
+                    <c:v>3.1153566835645428E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>0.63453457921989276</c:v>
+                    <c:v>0.36959434192747287</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>1.2676645369959048</c:v>
+                    <c:v>0.56337991933090259</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1.0131407499099725</c:v>
+                    <c:v>0.44998065136822013</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>1.3215019321464152</c:v>
+                    <c:v>0.52192038732621693</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>0.36867287615520378</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0.43935448742070532</c:v>
+                    <c:v>0.14112823850784598</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>0.49214167267001901</c:v>
+                    <c:v>0.1946851956683946</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>0.41646579133409767</c:v>
+                    <c:v>0.20218596225630467</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>0.58621726416946807</c:v>
+                    <c:v>8.7833174535619479E-2</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>1.3944203386014813</c:v>
+                    <c:v>0.61953169481483872</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -939,99 +1042,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DoE Dataset'!$Q$5:$Q$34</c:f>
+              <c:f>'DoE Dataset'!$R$5:$R$34</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.59591144172779864</c:v>
+                  <c:v>0.69583190002413908</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84572821651451191</c:v>
+                  <c:v>0.82985355707115638</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6388411778799814</c:v>
+                  <c:v>0.74291993243233734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0583818534602192</c:v>
+                  <c:v>1.1215248580691877</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0256144227750916</c:v>
+                  <c:v>0.98724496980256682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93015980573706081</c:v>
+                  <c:v>0.88778770855826439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57063390326177921</c:v>
+                  <c:v>0.39956040142793914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1815249801601788</c:v>
+                  <c:v>2.3681813869630983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1609719137426318</c:v>
+                  <c:v>1.8701972204087112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4770596832642937</c:v>
+                  <c:v>3.9819435270064898</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8834149370785749</c:v>
+                  <c:v>4.7702965906418173</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5317323043657094</c:v>
+                  <c:v>2.0552127883584488</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5593831562906706</c:v>
+                  <c:v>3.61513082964724</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.791844061778981</c:v>
+                  <c:v>1.6728265613272835</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3753541242897964</c:v>
+                  <c:v>1.0948477847682812</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4118859333717118</c:v>
+                  <c:v>0.57454708020108003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.774690445292217</c:v>
+                  <c:v>3.6623790547320936</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.271787371714465</c:v>
+                  <c:v>2.2928867940334814</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6941909382526381</c:v>
+                  <c:v>1.0135363819599612</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9307787818809685</c:v>
+                  <c:v>0.70489091906771506</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.738287313774908</c:v>
+                  <c:v>2.1774224524833312</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3267485633561535</c:v>
+                  <c:v>1.47848526369547</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0393357636228213</c:v>
+                  <c:v>3.1264805925495285</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.1101675580056032</c:v>
+                  <c:v>3.59801379386422</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.9181941854266844</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.6576036824280518</c:v>
+                  <c:v>1.8826882228694202</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.5218966914935077</c:v>
+                  <c:v>3.766745275725933</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6866038998175505</c:v>
+                  <c:v>1.7897737880336433</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.3654288389843465</c:v>
+                  <c:v>1.403226066671476</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.5995662187583495</c:v>
+                  <c:v>4.2650235114609334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,6 +2674,2371 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reponse/Uptake (Normalized, Corrected)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>New Coefficients</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Data From No Filter'!$D$6:$D$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="30"/>
+                  <c:pt idx="0">
+                    <c:v>8.3327613262213801E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16608781523863214</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11671302655446417</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.19432267746819457</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.6215655381021604E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.26100238481902421</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.5174325568911523E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15988578331299538</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.24461239102918622</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.35197578417475833</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1787380126605948</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.51391033316298784</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.1604419021858472</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.36016064767635292</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.2573066472754249</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.17650636043609319</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3788808178014829</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.6398085938492859</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.2746989803887957</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5.3350903291895485E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.54203183155382895</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.88852366996955723</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.82714889960242399</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.0888824477765948</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.26634719878044932</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.41047703876362157</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.31211231066749945</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.1371447451213033</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Data From No Filter'!$D$6:$D$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="30"/>
+                  <c:pt idx="0">
+                    <c:v>8.3327613262213801E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16608781523863214</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11671302655446417</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.19432267746819457</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.6215655381021604E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.26100238481902421</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.5174325568911523E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15988578331299538</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.24461239102918622</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.35197578417475833</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1787380126605948</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.51391033316298784</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.1604419021858472</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.36016064767635292</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.2573066472754249</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.17650636043609319</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3788808178014829</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.6398085938492859</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.2746989803887957</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5.3350903291895485E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.54203183155382895</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.88852366996955723</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.82714889960242399</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.0888824477765948</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.26634719878044932</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.41047703876362157</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.31211231066749945</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.1371447451213033</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data From No Filter'!$A$6:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>F9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>F11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>F12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>F13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>F14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>F15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>F16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>F17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>F18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>F19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>F20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>F21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>F22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>F23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>F24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>F25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>F27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>F28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>F30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data From No Filter'!$E$6:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.61372361013777454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84416498909286464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68739073176032928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0699657861527347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0553084602505494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88994072120399925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41601381637631729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1029310624883735</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9171949311849554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7299607875881531</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7381308277149667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0832039564079095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6721529487167919</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5640737406944694</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0199607978172092</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50139790400608308</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.204298421002953</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1725840659440876</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88217768718429368</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59219543750188353</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8489842468228626</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3347655036514126</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7883301126341284</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0766054046589684</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6742918248823395</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4639424298516603</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4989967238735569</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3119559353873949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABB6-4BEE-AD61-8D8B49C8FD27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Old Coefficients</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Data From No Filter'!$K$6:$K$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="30"/>
+                  <c:pt idx="0">
+                    <c:v>8.3327613262213801E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16608781523863214</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11671302655446417</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.19432267746819457</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.6215655381021604E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.26100238481902421</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.5174325568911523E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15988578331299538</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.24461239102918622</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.35197578417475833</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1787380126605948</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.51391033316298784</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.1604419021858472</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.36016064767635292</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.2573066472754249</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.17650636043609319</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3788808178014829</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.6398085938492859</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.2746989803887957</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5.3350903291895485E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.54203183155382895</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.88852366996955723</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.82714889960242399</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.0888824477765948</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.26634719878044932</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.41047703876362157</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.31211231066749945</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.1371447451213033</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Data From No Filter'!$K$6:$K$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="30"/>
+                  <c:pt idx="0">
+                    <c:v>8.3327613262213801E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16608781523863214</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11671302655446417</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.19432267746819457</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.6215655381021604E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.26100238481902421</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.5174325568911523E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15988578331299538</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.24461239102918622</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.35197578417475833</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1787380126605948</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.51391033316298784</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.1604419021858472</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.36016064767635292</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.2573066472754249</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.17650636043609319</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3788808178014829</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.6398085938492859</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.2746989803887957</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5.3350903291895485E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.54203183155382895</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.88852366996955723</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.82714889960242399</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.0888824477765948</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.26634719878044932</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.41047703876362157</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.31211231066749945</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.1371447451213033</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data From No Filter'!$J$6:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.70033566636733735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95070601683880052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7088594177307469</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2745700517539258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2369849324980382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0975239633309288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53619540385798958</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2916954877043714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9223092489342157</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2177597145004251</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5516831140958658</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1227262269718179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.95697124302714</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.222314897815048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0290706518143549</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1168649822247532</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.1489481116911788</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1799111703264877</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4607169431483367</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2071352039050676</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1933180411554356</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3317642454398886</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.747058176595897</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5065357900036682</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5531424443474111</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.9418593758428644</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7628546824985367</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.8284115477354668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABB6-4BEE-AD61-8D8B49C8FD27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>New new Coefficients</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Data From No Filter'!$W$6:$W$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="30"/>
+                  <c:pt idx="0">
+                    <c:v>8.2791744366636874E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14497495736931451</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12232105779082904</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.17098919982251196</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.6884987118559642E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.21112496573057193</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3662861577476673E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11502842152203858</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.15654517534280679</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.22541039856994885</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.11290639709463125</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.33822852597947445</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.7368015270887301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.27110752772714508</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.1388377543796967</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>9.0799886861408663E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.70639542310139525</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.2373834566733192</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.19060325959611799</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.1153566835645428E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.36959434192747287</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.56337991933090259</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.44998065136822013</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.52192038732621693</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.14112823850784598</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.1946851956683946</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.20218596225630467</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0.61953169481483872</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Data From No Filter'!$W$6:$W$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="30"/>
+                  <c:pt idx="0">
+                    <c:v>8.2791744366636874E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14497495736931451</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12232105779082904</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.17098919982251196</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.6884987118559642E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.21112496573057193</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3662861577476673E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11502842152203858</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.15654517534280679</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.22541039856994885</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.11290639709463125</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.33822852597947445</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.7368015270887301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.27110752772714508</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.1388377543796967</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>9.0799886861408663E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.70639542310139525</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.2373834566733192</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.19060325959611799</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.1153566835645428E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.36959434192747287</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.56337991933090259</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.44998065136822013</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.52192038732621693</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.14112823850784598</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.1946851956683946</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.20218596225630467</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0.61953169481483872</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data From No Filter'!$V$6:$V$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.69583190002413908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82985355707115638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74291993243233734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1215248580691877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98724496980256682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88778770855826439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39956040142793914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3681813869630983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8701972204087112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9819435270064898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7702965906418173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0552127883584488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.61513082964724</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6728265613272835</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0948477847682812</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57454708020108003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6623790547320936</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2928867940334814</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0135363819599612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70489091906771506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1774224524833312</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.47848526369547</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1264805925495285</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.59801379386422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8826882228694202</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.766745275725933</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7897737880336433</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.2650235114609334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16FF-46D7-BC40-A8FEB299982F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1388982176"/>
+        <c:axId val="1388979264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1388982176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1388979264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1388979264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1388982176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reponse/Uptake (Normalized, Corrected)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>New Coefficients</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Data From No Filter'!$D$6:$D$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="30"/>
+                  <c:pt idx="0">
+                    <c:v>8.3327613262213801E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16608781523863214</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11671302655446417</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.19432267746819457</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.6215655381021604E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.26100238481902421</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.5174325568911523E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15988578331299538</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.24461239102918622</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.35197578417475833</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1787380126605948</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.51391033316298784</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.1604419021858472</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.36016064767635292</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.2573066472754249</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.17650636043609319</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3788808178014829</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.6398085938492859</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.2746989803887957</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5.3350903291895485E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.54203183155382895</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.88852366996955723</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.82714889960242399</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.0888824477765948</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.26634719878044932</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.41047703876362157</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.31211231066749945</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.1371447451213033</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Data From No Filter'!$D$6:$D$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="30"/>
+                  <c:pt idx="0">
+                    <c:v>8.3327613262213801E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.16608781523863214</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11671302655446417</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.19432267746819457</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.6215655381021604E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.26100238481902421</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.5174325568911523E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15988578331299538</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.24461239102918622</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.35197578417475833</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1787380126605948</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.51391033316298784</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.1604419021858472</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.36016064767635292</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.2573066472754249</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.17650636043609319</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3788808178014829</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.6398085938492859</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.2746989803887957</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5.3350903291895485E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.54203183155382895</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.88852366996955723</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.82714889960242399</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1.0888824477765948</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.26634719878044932</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.41047703876362157</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.31211231066749945</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1.1371447451213033</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data From No Filter'!$A$6:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>F9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>F11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>F12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>F13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>F14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>F15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>F16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>F17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>F18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>F19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>F20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>F21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>F22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>F23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>F24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>F25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>F27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>F28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>F30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data From No Filter'!$E$6:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.61372361013777454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84416498909286464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68739073176032928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0699657861527347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0553084602505494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88994072120399925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41601381637631729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1029310624883735</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9171949311849554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7299607875881531</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7381308277149667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0832039564079095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6721529487167919</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5640737406944694</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0199607978172092</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50139790400608308</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.204298421002953</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1725840659440876</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88217768718429368</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59219543750188353</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8489842468228626</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3347655036514126</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7883301126341284</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0766054046589684</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6742918248823395</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4639424298516603</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4989967238735569</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3119559353873949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-153F-4220-8A45-3AFFA5E8155D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>New new Coefficients</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Data From No Filter'!$W$6:$W$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="30"/>
+                  <c:pt idx="0">
+                    <c:v>8.2791744366636874E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14497495736931451</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12232105779082904</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.17098919982251196</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.6884987118559642E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.21112496573057193</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3662861577476673E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11502842152203858</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.15654517534280679</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.22541039856994885</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.11290639709463125</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.33822852597947445</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.7368015270887301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.27110752772714508</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.1388377543796967</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>9.0799886861408663E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.70639542310139525</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.2373834566733192</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.19060325959611799</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.1153566835645428E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.36959434192747287</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.56337991933090259</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.44998065136822013</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.52192038732621693</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.14112823850784598</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.1946851956683946</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.20218596225630467</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0.61953169481483872</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Data From No Filter'!$W$6:$W$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="30"/>
+                  <c:pt idx="0">
+                    <c:v>8.2791744366636874E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14497495736931451</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12232105779082904</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.17098919982251196</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.6884987118559642E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.21112496573057193</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.3662861577476673E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11502842152203858</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.15654517534280679</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.22541039856994885</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.11290639709463125</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.33822852597947445</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.7368015270887301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.27110752772714508</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.1388377543796967</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>9.0799886861408663E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.70639542310139525</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.2373834566733192</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.19060325959611799</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.1153566835645428E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.36959434192747287</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.56337991933090259</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.44998065136822013</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.52192038732621693</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0.14112823850784598</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.1946851956683946</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>0.20218596225630467</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>0.61953169481483872</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data From No Filter'!$V$6:$V$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.69583190002413908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82985355707115638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74291993243233734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1215248580691877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98724496980256682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88778770855826439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39956040142793914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3681813869630983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8701972204087112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9819435270064898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7702965906418173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0552127883584488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.61513082964724</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6728265613272835</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0948477847682812</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57454708020108003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6623790547320936</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2928867940334814</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0135363819599612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70489091906771506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1774224524833312</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.47848526369547</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1264805925495285</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.59801379386422</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8826882228694202</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.766745275725933</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7897737880336433</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.2650235114609334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-153F-4220-8A45-3AFFA5E8155D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1388982176"/>
+        <c:axId val="1388979264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1388982176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1388979264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1388979264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1388982176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2694,6 +5159,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4203,20 +6748,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>274636</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>562118</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>46036</xdr:rowOff>
+      <xdr:rowOff>60757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>431799</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>101022</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:rowOff>59170</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4243,16 +7794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>607580</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>407988</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>152834</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>125413</xdr:rowOff>
+      <xdr:rowOff>122238</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4281,16 +7832,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>553894</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>398463</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>105498</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>1588</xdr:rowOff>
+      <xdr:rowOff>24679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4312,6 +7863,85 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>449943</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>4083</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94341</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6DA762-ECDA-6FD7-0471-6088F91DE33D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>172356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>606426</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>154894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232B4C65-28E8-49FB-813D-2D5FD7F368B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4586,10 +8216,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:V40"/>
+  <dimension ref="A2:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4597,7 +8227,15 @@
     <col min="8" max="8" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="O2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -4615,14 +8253,13 @@
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="68" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="69"/>
+      <c r="S3" s="67"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -4663,20 +8300,23 @@
       <c r="N4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="R4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
@@ -4719,20 +8359,25 @@
       <c r="N5" s="9">
         <v>1.35</v>
       </c>
-      <c r="O5" s="11">
-        <v>1.1752344682907394</v>
-      </c>
-      <c r="P5" s="37">
-        <v>4.9926363499740577E-2</v>
-      </c>
-      <c r="Q5" s="65">
-        <v>0.59591144172779864</v>
+      <c r="O5" s="68">
+        <v>0.70033566636733735</v>
+      </c>
+      <c r="P5" s="80">
+        <v>8.3327613262213801E-2</v>
+      </c>
+      <c r="Q5" s="94">
+        <v>1.006472491909385</v>
       </c>
       <c r="R5" s="64">
-        <v>7.0902969161043633E-2</v>
+        <f>O5/Q5</f>
+        <v>0.69583190002413908</v>
+      </c>
+      <c r="S5" s="63">
+        <f>P5/Q5</f>
+        <v>8.2791744366636874E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -4775,20 +8420,25 @@
       <c r="N6" s="3">
         <v>0.20799999999999999</v>
       </c>
-      <c r="O6" s="11">
-        <v>1.1241271111385311</v>
-      </c>
-      <c r="P6" s="37">
-        <v>4.4009695943849944E-2</v>
-      </c>
-      <c r="Q6" s="65">
-        <v>0.84572821651451191</v>
+      <c r="O6" s="68">
+        <v>0.95070601683880052</v>
+      </c>
+      <c r="P6" s="80">
+        <v>0.16608781523863214</v>
+      </c>
+      <c r="Q6" s="94">
+        <v>1.145631067961165</v>
       </c>
       <c r="R6" s="64">
-        <v>0.14774825159266566</v>
+        <f>O6/Q6</f>
+        <v>0.82985355707115638</v>
+      </c>
+      <c r="S6" s="63">
+        <f>P6/Q6</f>
+        <v>0.14497495736931451</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -4831,20 +8481,25 @@
       <c r="N7" s="3">
         <v>0.76400000000000001</v>
       </c>
-      <c r="O7" s="11">
-        <v>1.1096019515885367</v>
-      </c>
-      <c r="P7" s="37">
-        <v>4.6504934459953691E-2</v>
-      </c>
-      <c r="Q7" s="65">
-        <v>0.6388411778799814</v>
+      <c r="O7" s="68">
+        <v>0.7088594177307469</v>
+      </c>
+      <c r="P7" s="80">
+        <v>0.11671302655446417</v>
+      </c>
+      <c r="Q7" s="94">
+        <v>0.95415318230852209</v>
       </c>
       <c r="R7" s="64">
-        <v>0.10518459019234293</v>
+        <f>O7/Q7</f>
+        <v>0.74291993243233734</v>
+      </c>
+      <c r="S7" s="63">
+        <f>P7/Q7</f>
+        <v>0.12232105779082904</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -4887,20 +8542,25 @@
       <c r="N8" s="3">
         <v>0.36099999999999999</v>
       </c>
-      <c r="O8" s="11">
-        <v>1.2042629487522978</v>
-      </c>
-      <c r="P8" s="37">
-        <v>5.3300575198523173E-2</v>
-      </c>
-      <c r="Q8" s="65">
-        <v>1.0583818534602192</v>
+      <c r="O8" s="68">
+        <v>1.2745700517539258</v>
+      </c>
+      <c r="P8" s="80">
+        <v>0.19432267746819457</v>
+      </c>
+      <c r="Q8" s="94">
+        <v>1.1364617044228695</v>
       </c>
       <c r="R8" s="64">
-        <v>0.1613623317644429</v>
+        <f>O8/Q8</f>
+        <v>1.1215248580691877</v>
+      </c>
+      <c r="S8" s="63">
+        <f>P8/Q8</f>
+        <v>0.17098919982251196</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -4943,20 +8603,25 @@
       <c r="N9" s="3">
         <v>0.45100000000000001</v>
       </c>
-      <c r="O9" s="11">
-        <v>1.2060915925412041</v>
-      </c>
-      <c r="P9" s="37">
-        <v>2.8715029018997161E-2</v>
-      </c>
-      <c r="Q9" s="65">
-        <v>1.0256144227750916</v>
+      <c r="O9" s="68">
+        <v>1.2369849324980382</v>
+      </c>
+      <c r="P9" s="80">
+        <v>4.6215655381021604E-2</v>
+      </c>
+      <c r="Q9" s="94">
+        <v>1.2529665587918015</v>
       </c>
       <c r="R9" s="64">
-        <v>3.8318528764176525E-2</v>
+        <f>O9/Q9</f>
+        <v>0.98724496980256682</v>
+      </c>
+      <c r="S9" s="63">
+        <f>P9/Q9</f>
+        <v>3.6884987118559642E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -4999,20 +8664,25 @@
       <c r="N10" s="3">
         <v>1.64</v>
       </c>
-      <c r="O10" s="11">
-        <v>1.1799305415710242</v>
-      </c>
-      <c r="P10" s="37">
-        <v>5.8073485220220919E-2</v>
-      </c>
-      <c r="Q10" s="65">
-        <v>0.93015980573706081</v>
+      <c r="O10" s="68">
+        <v>1.0975239633309288</v>
+      </c>
+      <c r="P10" s="80">
+        <v>0.26100238481902421</v>
+      </c>
+      <c r="Q10" s="94">
+        <v>1.2362459546925566</v>
       </c>
       <c r="R10" s="64">
-        <v>0.22120148231057002</v>
+        <f>O10/Q10</f>
+        <v>0.88778770855826439</v>
+      </c>
+      <c r="S10" s="63">
+        <f>P10/Q10</f>
+        <v>0.21112496573057193</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -5055,20 +8725,25 @@
       <c r="N11" s="1">
         <v>1.44</v>
       </c>
-      <c r="O11" s="11">
-        <v>0.93964869734003365</v>
-      </c>
-      <c r="P11" s="37">
-        <v>1.6200541058925187E-2</v>
-      </c>
-      <c r="Q11" s="65">
-        <v>0.57063390326177921</v>
+      <c r="O11" s="68">
+        <v>0.53619540385798958</v>
+      </c>
+      <c r="P11" s="80">
+        <v>4.5174325568911523E-2</v>
+      </c>
+      <c r="Q11" s="94">
+        <v>1.3419633225458469</v>
       </c>
       <c r="R11" s="64">
-        <v>4.807576033127213E-2</v>
+        <f>O11/Q11</f>
+        <v>0.39956040142793914</v>
+      </c>
+      <c r="S11" s="63">
+        <f>P11/Q11</f>
+        <v>3.3662861577476673E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>8</v>
       </c>
@@ -5107,20 +8782,25 @@
       </c>
       <c r="M12" s="27"/>
       <c r="N12" s="38"/>
-      <c r="O12" s="11">
-        <v>1.508896536890757</v>
-      </c>
-      <c r="P12" s="37">
-        <v>2.1003496431770123E-2</v>
-      </c>
-      <c r="Q12" s="65">
-        <v>2.1815249801601788</v>
+      <c r="O12" s="68">
+        <v>3.2916954877043714</v>
+      </c>
+      <c r="P12" s="80">
+        <v>0.15988578331299538</v>
+      </c>
+      <c r="Q12" s="94">
+        <v>1.389967637540453</v>
       </c>
       <c r="R12" s="64">
-        <v>0.10596205863289816</v>
+        <f>O12/Q12</f>
+        <v>2.3681813869630983</v>
+      </c>
+      <c r="S12" s="63">
+        <f>P12/Q12</f>
+        <v>0.11502842152203858</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -5159,20 +8839,25 @@
       </c>
       <c r="M13" s="28"/>
       <c r="N13" s="39"/>
-      <c r="O13" s="11">
-        <v>1.3523124619759672</v>
-      </c>
-      <c r="P13" s="37">
-        <v>3.9936744785101196E-2</v>
-      </c>
-      <c r="Q13" s="65">
-        <v>2.1609719137426318</v>
+      <c r="O13" s="68">
+        <v>2.9223092489342157</v>
+      </c>
+      <c r="P13" s="80">
+        <v>0.24461239102918622</v>
+      </c>
+      <c r="Q13" s="94">
+        <v>1.5625674217907226</v>
       </c>
       <c r="R13" s="64">
-        <v>0.18088452033619828</v>
+        <f>O13/Q13</f>
+        <v>1.8701972204087112</v>
+      </c>
+      <c r="S13" s="63">
+        <f>P13/Q13</f>
+        <v>0.15654517534280679</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -5211,20 +8896,25 @@
       </c>
       <c r="M14" s="28"/>
       <c r="N14" s="39"/>
-      <c r="O14" s="11">
-        <v>1.3888042944218604</v>
-      </c>
-      <c r="P14" s="37">
-        <v>5.9921708032648298E-2</v>
-      </c>
-      <c r="Q14" s="65">
-        <v>4.4770596832642937</v>
+      <c r="O14" s="68">
+        <v>6.2177597145004251</v>
+      </c>
+      <c r="P14" s="80">
+        <v>0.35197578417475833</v>
+      </c>
+      <c r="Q14" s="94">
+        <v>1.5614886731391586</v>
       </c>
       <c r="R14" s="64">
-        <v>0.25343800101171265</v>
+        <f>O14/Q14</f>
+        <v>3.9819435270064898</v>
+      </c>
+      <c r="S14" s="63">
+        <f>P14/Q14</f>
+        <v>0.22541039856994885</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -5263,20 +8953,25 @@
       </c>
       <c r="M15" s="28"/>
       <c r="N15" s="39"/>
-      <c r="O15" s="11">
-        <v>1.2835543973795724</v>
-      </c>
-      <c r="P15" s="37">
-        <v>7.6762749246197776E-2</v>
-      </c>
-      <c r="Q15" s="65">
-        <v>5.8834149370785749</v>
+      <c r="O15" s="68">
+        <v>7.5516831140958658</v>
+      </c>
+      <c r="P15" s="80">
+        <v>0.1787380126605948</v>
+      </c>
+      <c r="Q15" s="94">
+        <v>1.5830636461704424</v>
       </c>
       <c r="R15" s="64">
-        <v>0.13925238620622202</v>
+        <f>O15/Q15</f>
+        <v>4.7702965906418173</v>
+      </c>
+      <c r="S15" s="63">
+        <f>P15/Q15</f>
+        <v>0.11290639709463125</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -5315,17 +9010,22 @@
       </c>
       <c r="M16" s="28"/>
       <c r="N16" s="39"/>
-      <c r="O16" s="11">
-        <v>1.2334346019075559</v>
-      </c>
-      <c r="P16" s="37">
-        <v>7.2218849274688052E-2</v>
-      </c>
-      <c r="Q16" s="65">
-        <v>2.5317323043657094</v>
+      <c r="O16" s="68">
+        <v>3.1227262269718179</v>
+      </c>
+      <c r="P16" s="80">
+        <v>0.51391033316298784</v>
+      </c>
+      <c r="Q16" s="94">
+        <v>1.5194174757281553</v>
       </c>
       <c r="R16" s="64">
-        <v>0.41664984294117008</v>
+        <f>O16/Q16</f>
+        <v>2.0552127883584488</v>
+      </c>
+      <c r="S16" s="63">
+        <f>P16/Q16</f>
+        <v>0.33822852597947445</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
@@ -5367,20 +9067,23 @@
       </c>
       <c r="M17" s="28"/>
       <c r="N17" s="39"/>
-      <c r="O17" s="26">
-        <v>1.3065300806772928</v>
-      </c>
-      <c r="P17" s="37">
-        <v>8.6400857100283127E-2</v>
-      </c>
-      <c r="Q17" s="65">
-        <v>4.5593831562906706</v>
+      <c r="O17" s="68">
+        <v>5.95697124302714</v>
+      </c>
+      <c r="P17" s="80">
+        <v>0.1604419021858472</v>
+      </c>
+      <c r="Q17" s="94">
+        <v>1.6477885652642934</v>
       </c>
       <c r="R17" s="64">
-        <v>0.12280000633638349</v>
-      </c>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
+        <f>O17/Q17</f>
+        <v>3.61513082964724</v>
+      </c>
+      <c r="S17" s="63">
+        <f>P17/Q17</f>
+        <v>9.7368015270887301E-2</v>
+      </c>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
     </row>
@@ -5423,20 +9126,23 @@
       </c>
       <c r="M18" s="28"/>
       <c r="N18" s="39"/>
-      <c r="O18" s="26">
-        <v>1.2402390058478003</v>
-      </c>
-      <c r="P18" s="37">
-        <v>7.7718623201002063E-2</v>
-      </c>
-      <c r="Q18" s="65">
-        <v>1.791844061778981</v>
+      <c r="O18" s="68">
+        <v>2.222314897815048</v>
+      </c>
+      <c r="P18" s="80">
+        <v>0.36016064767635292</v>
+      </c>
+      <c r="Q18" s="94">
+        <v>1.3284789644012944</v>
       </c>
       <c r="R18" s="64">
-        <v>0.29039616233498072</v>
-      </c>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
+        <f>O18/Q18</f>
+        <v>1.6728265613272835</v>
+      </c>
+      <c r="S18" s="63">
+        <f>P18/Q18</f>
+        <v>0.27110752772714508</v>
+      </c>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
     </row>
@@ -5479,20 +9185,23 @@
       </c>
       <c r="M19" s="28"/>
       <c r="N19" s="39"/>
-      <c r="O19" s="26">
-        <v>1.4753077887210493</v>
-      </c>
-      <c r="P19" s="37">
-        <v>0.10902783037573784</v>
-      </c>
-      <c r="Q19" s="65">
-        <v>1.3753541242897964</v>
+      <c r="O19" s="68">
+        <v>2.0290706518143549</v>
+      </c>
+      <c r="P19" s="80">
+        <v>0.2573066472754249</v>
+      </c>
+      <c r="Q19" s="94">
+        <v>1.8532901833872706</v>
       </c>
       <c r="R19" s="64">
-        <v>0.17440879065546394</v>
-      </c>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
+        <f>O19/Q19</f>
+        <v>1.0948477847682812</v>
+      </c>
+      <c r="S19" s="63">
+        <f>P19/Q19</f>
+        <v>0.1388377543796967</v>
+      </c>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
     </row>
@@ -5535,20 +9244,23 @@
       </c>
       <c r="M20" s="28"/>
       <c r="N20" s="39"/>
-      <c r="O20" s="26">
-        <v>0.79104476914617194</v>
-      </c>
-      <c r="P20" s="37">
-        <v>2.1078811129150273E-2</v>
-      </c>
-      <c r="Q20" s="65">
-        <v>1.4118859333717118</v>
+      <c r="O20" s="68">
+        <v>1.1168649822247532</v>
+      </c>
+      <c r="P20" s="80">
+        <v>0.17650636043609319</v>
+      </c>
+      <c r="Q20" s="94">
+        <v>1.9439050701186622</v>
       </c>
       <c r="R20" s="64">
-        <v>0.22313068402766689</v>
-      </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
+        <f>O20/Q20</f>
+        <v>0.57454708020108003</v>
+      </c>
+      <c r="S20" s="63">
+        <f>P20/Q20</f>
+        <v>9.0799886861408663E-2</v>
+      </c>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
     </row>
@@ -5591,76 +9303,82 @@
       </c>
       <c r="M21" s="28"/>
       <c r="N21" s="39"/>
-      <c r="O21" s="26">
-        <v>0.66349452431970024</v>
-      </c>
-      <c r="P21" s="37">
-        <v>1.878968231010612E-2</v>
-      </c>
-      <c r="Q21" s="65">
-        <v>10.774690445292217</v>
+      <c r="O21" s="68">
+        <v>7.1489481116911788</v>
+      </c>
+      <c r="P21" s="80">
+        <v>1.3788808178014829</v>
+      </c>
+      <c r="Q21" s="94">
+        <v>1.9519956850053937</v>
       </c>
       <c r="R21" s="64">
-        <v>2.0782097926358754</v>
-      </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
+        <f>O21/Q21</f>
+        <v>3.6623790547320936</v>
+      </c>
+      <c r="S21" s="63">
+        <f>P21/Q21</f>
+        <v>0.70639542310139525</v>
+      </c>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="85">
         <v>0.25</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="71">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="71">
         <v>0</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="71">
         <v>0</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="71">
         <v>0.33333299999999999</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="86">
         <v>50</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="88">
         <v>260.89999999999998</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="71">
         <v>2.6760000000000002</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="88">
         <v>0.23300000000000001</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="88">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="26">
-        <v>0.54826363969874181</v>
-      </c>
-      <c r="P22" s="37">
-        <v>2.004021430950588E-2</v>
-      </c>
-      <c r="Q22" s="65">
-        <v>11.271787371714465</v>
+      <c r="M22" s="89"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="72">
+        <v>6.1799111703264877</v>
+      </c>
+      <c r="P22" s="91">
+        <v>0.6398085938492859</v>
+      </c>
+      <c r="Q22" s="95">
+        <v>2.6952535059331177</v>
       </c>
       <c r="R22" s="64">
-        <v>1.1669725065131913</v>
-      </c>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
+        <f>O22/Q22</f>
+        <v>2.2928867940334814</v>
+      </c>
+      <c r="S22" s="63">
+        <f>P22/Q22</f>
+        <v>0.2373834566733192</v>
+      </c>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
     </row>
@@ -5703,20 +9421,23 @@
       </c>
       <c r="M23" s="28"/>
       <c r="N23" s="39"/>
-      <c r="O23" s="26">
-        <v>0.86219145089684945</v>
-      </c>
-      <c r="P23" s="37">
-        <v>1.6136563469635375E-2</v>
-      </c>
-      <c r="Q23" s="65">
-        <v>1.6941909382526381</v>
+      <c r="O23" s="68">
+        <v>1.4607169431483367</v>
+      </c>
+      <c r="P23" s="80">
+        <v>0.2746989803887957</v>
+      </c>
+      <c r="Q23" s="94">
+        <v>1.4412081984897518</v>
       </c>
       <c r="R23" s="64">
-        <v>0.31860554880595776</v>
-      </c>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
+        <f>O23/Q23</f>
+        <v>1.0135363819599612</v>
+      </c>
+      <c r="S23" s="63">
+        <f>P23/Q23</f>
+        <v>0.19060325959611799</v>
+      </c>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
@@ -5759,20 +9480,23 @@
       </c>
       <c r="M24" s="28"/>
       <c r="N24" s="39"/>
-      <c r="O24" s="26">
-        <v>0.6252063753927698</v>
-      </c>
-      <c r="P24" s="37">
-        <v>9.9690735087609259E-3</v>
-      </c>
-      <c r="Q24" s="65">
-        <v>1.9307787818809685</v>
+      <c r="O24" s="68">
+        <v>1.2071352039050676</v>
+      </c>
+      <c r="P24" s="80">
+        <v>5.3350903291895485E-2</v>
+      </c>
+      <c r="Q24" s="94">
+        <v>1.7125134843581444</v>
       </c>
       <c r="R24" s="64">
-        <v>8.5333268168257495E-2</v>
-      </c>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
+        <f>O24/Q24</f>
+        <v>0.70489091906771506</v>
+      </c>
+      <c r="S24" s="63">
+        <f>P24/Q24</f>
+        <v>3.1153566835645428E-2</v>
+      </c>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
     </row>
@@ -5815,20 +9539,23 @@
       </c>
       <c r="M25" s="28"/>
       <c r="N25" s="39"/>
-      <c r="O25" s="26">
-        <v>0.85421953240154658</v>
-      </c>
-      <c r="P25" s="37">
-        <v>4.1406808502010069E-2</v>
-      </c>
-      <c r="Q25" s="65">
-        <v>3.738287313774908</v>
+      <c r="O25" s="68">
+        <v>3.1933180411554356</v>
+      </c>
+      <c r="P25" s="80">
+        <v>0.54203183155382895</v>
+      </c>
+      <c r="Q25" s="94">
+        <v>1.4665587918015104</v>
       </c>
       <c r="R25" s="64">
-        <v>0.63453457921989276</v>
-      </c>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
+        <f>O25/Q25</f>
+        <v>2.1774224524833312</v>
+      </c>
+      <c r="S25" s="63">
+        <f>P25/Q25</f>
+        <v>0.36959434192747287</v>
+      </c>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
     </row>
@@ -5871,20 +9598,23 @@
       </c>
       <c r="M26" s="28"/>
       <c r="N26" s="39"/>
-      <c r="O26" s="26">
-        <v>0.70091388063530535</v>
-      </c>
-      <c r="P26" s="37">
-        <v>1.8128108591917484E-2</v>
-      </c>
-      <c r="Q26" s="65">
-        <v>3.3267485633561535</v>
+      <c r="O26" s="68">
+        <v>2.3317642454398886</v>
+      </c>
+      <c r="P26" s="80">
+        <v>0.88852366996955723</v>
+      </c>
+      <c r="Q26" s="94">
+        <v>1.5771305285868391</v>
       </c>
       <c r="R26" s="64">
-        <v>1.2676645369959048</v>
-      </c>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
+        <f>O26/Q26</f>
+        <v>1.47848526369547</v>
+      </c>
+      <c r="S26" s="63">
+        <f>P26/Q26</f>
+        <v>0.56337991933090259</v>
+      </c>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
     </row>
@@ -5927,20 +9657,23 @@
       </c>
       <c r="M27" s="28"/>
       <c r="N27" s="39"/>
-      <c r="O27" s="26">
-        <v>0.81642052170532509</v>
-      </c>
-      <c r="P27" s="37">
-        <v>2.55134584011616E-2</v>
-      </c>
-      <c r="Q27" s="65">
-        <v>7.0393357636228213</v>
+      <c r="O27" s="68">
+        <v>5.747058176595897</v>
+      </c>
+      <c r="P27" s="80">
+        <v>0.82714889960242399</v>
+      </c>
+      <c r="Q27" s="94">
+        <v>1.8381877022653721</v>
       </c>
       <c r="R27" s="64">
-        <v>1.0131407499099725</v>
-      </c>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
+        <f>O27/Q27</f>
+        <v>3.1264805925495285</v>
+      </c>
+      <c r="S27" s="63">
+        <f>P27/Q27</f>
+        <v>0.44998065136822013</v>
+      </c>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
     </row>
@@ -5983,20 +9716,23 @@
       </c>
       <c r="M28" s="28"/>
       <c r="N28" s="39"/>
-      <c r="O28" s="26">
-        <v>0.82397340578080414</v>
-      </c>
-      <c r="P28" s="37">
-        <v>3.8254331645332797E-2</v>
-      </c>
-      <c r="Q28" s="65">
-        <v>9.1101675580056032</v>
+      <c r="O28" s="68">
+        <v>7.5065357900036682</v>
+      </c>
+      <c r="P28" s="80">
+        <v>1.0888824477765948</v>
+      </c>
+      <c r="Q28" s="94">
+        <v>2.0862998921251346</v>
       </c>
       <c r="R28" s="64">
-        <v>1.3215019321464152</v>
-      </c>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
+        <f>O28/Q28</f>
+        <v>3.59801379386422</v>
+      </c>
+      <c r="S28" s="63">
+        <f>P28/Q28</f>
+        <v>0.52192038732621693</v>
+      </c>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
     </row>
@@ -6039,70 +9775,72 @@
       </c>
       <c r="M29" s="28"/>
       <c r="N29" s="39"/>
-      <c r="O29" s="11">
-        <v>0.72244858791380839</v>
-      </c>
-      <c r="P29" s="37">
-        <v>3.2321976803145538E-2</v>
-      </c>
-      <c r="Q29" s="65">
-        <v>4.9181941854266844</v>
+      <c r="O29" s="68">
+        <v>3.5531424443474111</v>
+      </c>
+      <c r="P29" s="80">
+        <v>0.26634719878044932</v>
+      </c>
+      <c r="Q29" s="94">
+        <v>1.8872707659115424</v>
       </c>
       <c r="R29" s="64">
-        <v>0.36867287615520378</v>
+        <f>O29/Q29</f>
+        <v>1.8826882228694202</v>
+      </c>
+      <c r="S29" s="63">
+        <f>P29/Q29</f>
+        <v>0.14112823850784598</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="85">
         <v>0.25</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="71">
         <v>0</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="71">
         <v>0.33333299999999999</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="71">
         <v>0.33333299999999999</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="71">
         <v>0.33333299999999999</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="86">
         <v>50</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="88">
         <v>122.6</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="71">
         <v>1.179</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="88">
         <v>0.16300000000000001</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="88">
         <v>1.4E-2</v>
       </c>
-      <c r="M30" s="28"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="11">
-        <v>0.78040161069817238</v>
-      </c>
-      <c r="P30" s="37">
-        <v>3.7931810512418319E-2</v>
-      </c>
-      <c r="Q30" s="65">
-        <v>8.6576036824280518</v>
-      </c>
-      <c r="R30" s="64">
-        <v>0.43935448742070532</v>
-      </c>
+      <c r="M30" s="89"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="72">
+        <v>6.7564078585532794</v>
+      </c>
+      <c r="P30" s="91">
+        <v>0.34287294965058834</v>
+      </c>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="63"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
@@ -6143,17 +9881,22 @@
       </c>
       <c r="M31" s="28"/>
       <c r="N31" s="39"/>
-      <c r="O31" s="11">
-        <v>0.83406275379335015</v>
-      </c>
-      <c r="P31" s="37">
-        <v>1.979791256328076E-2</v>
-      </c>
-      <c r="Q31" s="65">
-        <v>9.5218966914935077</v>
+      <c r="O31" s="68">
+        <v>7.9418593758428644</v>
+      </c>
+      <c r="P31" s="80">
+        <v>0.41047703876362157</v>
+      </c>
+      <c r="Q31" s="94">
+        <v>2.1084142394822005</v>
       </c>
       <c r="R31" s="64">
-        <v>0.49214167267001901</v>
+        <f>O31/Q31</f>
+        <v>3.766745275725933</v>
+      </c>
+      <c r="S31" s="63">
+        <f>P31/Q31</f>
+        <v>0.1946851956683946</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
@@ -6195,20 +9938,25 @@
       </c>
       <c r="M32" s="28"/>
       <c r="N32" s="39"/>
-      <c r="O32" s="11">
-        <v>0.74943084681141636</v>
-      </c>
-      <c r="P32" s="37">
-        <v>2.3200870042119837E-2</v>
-      </c>
-      <c r="Q32" s="65">
-        <v>3.6866038998175505</v>
+      <c r="O32" s="68">
+        <v>2.7628546824985367</v>
+      </c>
+      <c r="P32" s="80">
+        <v>0.31211231066749945</v>
+      </c>
+      <c r="Q32" s="94">
+        <v>1.5436893203883495</v>
       </c>
       <c r="R32" s="64">
-        <v>0.41646579133409767</v>
+        <f>O32/Q32</f>
+        <v>1.7897737880336433</v>
+      </c>
+      <c r="S32" s="63">
+        <f>P32/Q32</f>
+        <v>0.20218596225630467</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
@@ -6247,20 +9995,25 @@
       </c>
       <c r="M33" s="28"/>
       <c r="N33" s="39"/>
-      <c r="O33" s="11">
-        <v>0.55446950405572315</v>
-      </c>
-      <c r="P33" s="37">
-        <v>1.3054009169665566E-2</v>
-      </c>
-      <c r="Q33" s="65">
-        <v>9.3654288389843465</v>
+      <c r="O33" s="68">
+        <v>5.1928446836208177</v>
+      </c>
+      <c r="P33" s="80">
+        <v>0.32503959573294783</v>
+      </c>
+      <c r="Q33" s="94">
+        <v>3.7006472491909386</v>
       </c>
       <c r="R33" s="64">
-        <v>0.58621726416946807</v>
+        <f>O33/Q33</f>
+        <v>1.403226066671476</v>
+      </c>
+      <c r="S33" s="63">
+        <f>P33/Q33</f>
+        <v>8.7833174535619479E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -6299,20 +10052,25 @@
       </c>
       <c r="M34" s="29"/>
       <c r="N34" s="40"/>
-      <c r="O34" s="36">
-        <v>0.81549638487186027</v>
-      </c>
-      <c r="P34" s="41">
-        <v>3.334815202110368E-2</v>
-      </c>
-      <c r="Q34" s="65">
-        <v>9.5995662187583495</v>
+      <c r="O34" s="68">
+        <v>7.8284115477354668</v>
+      </c>
+      <c r="P34" s="80">
+        <v>1.1371447451213033</v>
+      </c>
+      <c r="Q34" s="94">
+        <v>1.8354908306364617</v>
       </c>
       <c r="R34" s="64">
-        <v>1.3944203386014813</v>
+        <f>O34/Q34</f>
+        <v>4.2650235114609334</v>
+      </c>
+      <c r="S34" s="63">
+        <f>P34/Q34</f>
+        <v>0.61953169481483872</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="48" t="s">
         <v>46</v>
       </c>
@@ -6353,18 +10111,20 @@
       <c r="N35" s="9">
         <v>0.35099999999999998</v>
       </c>
-      <c r="O35" s="35">
+      <c r="O35" s="83"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="51">
         <v>6.7855582943868772E-4</v>
       </c>
-      <c r="P35" s="51">
-        <v>1.5792198680667817E-4</v>
-      </c>
-      <c r="Q35" s="66">
+      <c r="R35" s="96">
         <v>0</v>
       </c>
-      <c r="R35" s="3"/>
+      <c r="S35" s="97">
+        <f>P35/Q35</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="49" t="s">
         <v>47</v>
       </c>
@@ -6405,18 +10165,15 @@
       <c r="N36" s="3">
         <v>1.06</v>
       </c>
-      <c r="O36" s="26">
+      <c r="Q36" s="37">
         <v>1</v>
       </c>
-      <c r="P36" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="66">
+      <c r="R36" s="92">
         <v>1</v>
       </c>
-      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="50" t="s">
         <v>48</v>
       </c>
@@ -6457,17 +10214,16 @@
       <c r="N37" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="41">
         <v>1.8331536052682542</v>
       </c>
-      <c r="P37" s="41">
-        <v>2.3414509376970514E-2</v>
-      </c>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="1"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="1"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="67" t="s">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" s="65" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6493,21 +10249,21 @@
       <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
@@ -6537,7 +10293,7 @@
       <c r="J4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -6560,16 +10316,16 @@
       <c r="E5" s="9">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="53">
         <v>116.25</v>
       </c>
       <c r="G5" s="11">
         <v>7.0710678118650741E-2</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="54">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="55">
         <v>2.1213203435596403E-2</v>
       </c>
       <c r="J5">
@@ -6599,16 +10355,16 @@
       <c r="E6" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="53">
         <v>123.05000000000001</v>
       </c>
       <c r="G6" s="11">
         <v>0.91923881554250975</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="54">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="55">
         <v>1.6970562748477244E-2</v>
       </c>
       <c r="J6">
@@ -6638,16 +10394,16 @@
       <c r="E7" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="53">
         <v>124.05</v>
       </c>
       <c r="G7" s="11">
         <v>0.7778174593051983</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="54">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="55">
         <v>0</v>
       </c>
       <c r="J7">
@@ -6677,16 +10433,16 @@
       <c r="E8" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="53">
         <v>140.1</v>
       </c>
       <c r="G8" s="11">
         <v>0.70710678118654757</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="54">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="55">
         <v>1.8384776310850181E-2</v>
       </c>
       <c r="J8">
@@ -6716,16 +10472,16 @@
       <c r="E9" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="53">
         <v>136.75</v>
       </c>
       <c r="G9" s="11">
         <v>1.3435028842544243</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="54">
         <v>0.10299999999999999</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="55">
         <v>2.1213203435596486E-2</v>
       </c>
       <c r="J9">
@@ -6755,16 +10511,16 @@
       <c r="E10" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="53">
         <v>148.30000000000001</v>
       </c>
       <c r="G10" s="11">
         <v>0.70710678118654757</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="54">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="55">
         <v>3.5355339059327407E-3</v>
       </c>
       <c r="J10">
@@ -6794,16 +10550,16 @@
       <c r="E11" s="1">
         <v>0.01</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="53">
         <v>76.650000000000006</v>
       </c>
       <c r="G11" s="11">
         <v>0.21213203435596226</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="54">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="55">
         <v>2.8284271247461927E-3</v>
       </c>
       <c r="J11">
@@ -6833,16 +10589,16 @@
       <c r="E12" s="9">
         <v>1.4E-2</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="53">
         <v>102.44999999999999</v>
       </c>
       <c r="G12" s="11">
         <v>0.21213203435596226</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="54">
         <v>0.16500000000000001</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="55">
         <v>5.6568542494923853E-3</v>
       </c>
       <c r="J12">
@@ -6872,16 +10628,16 @@
       <c r="E13" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="53">
         <v>113.95</v>
       </c>
       <c r="G13" s="11">
         <v>0.63639610306789685</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="54">
         <v>0.183</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="55">
         <v>1.4142135623730963E-3</v>
       </c>
       <c r="J13">
@@ -6911,16 +10667,16 @@
       <c r="E14" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="53">
         <v>106.19999999999999</v>
       </c>
       <c r="G14" s="11">
         <v>0.14142135623731153</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="54">
         <v>0.15999999999999998</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="55">
         <v>2.1213203435596427E-2</v>
       </c>
       <c r="J14">
@@ -6950,16 +10706,16 @@
       <c r="E15" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="53">
         <v>87</v>
       </c>
       <c r="G15" s="11">
         <v>0.14142135623730148</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="54">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="55">
         <v>9.8994949366116632E-3</v>
       </c>
       <c r="J15">
@@ -6989,16 +10745,16 @@
       <c r="E16" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="53">
         <v>130.30000000000001</v>
       </c>
       <c r="G16" s="11">
         <v>1.5556349186104166</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="54">
         <v>0.17699999999999999</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="55">
         <v>1.8384776310850233E-2</v>
       </c>
       <c r="J16">
@@ -7028,16 +10784,16 @@
       <c r="E17" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="53">
         <v>124.7</v>
       </c>
       <c r="G17" s="11">
         <v>0.70710678118654757</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="54">
         <v>0.17499999999999999</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="55">
         <v>7.0710678118654623E-3</v>
       </c>
       <c r="J17">
@@ -7067,16 +10823,16 @@
       <c r="E18" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="53">
         <v>97.5</v>
       </c>
       <c r="G18" s="11">
         <v>0</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="54">
         <v>0.1115</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="55">
         <v>6.3639610306789329E-3</v>
       </c>
       <c r="J18">
@@ -7106,16 +10862,16 @@
       <c r="E19" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="53">
         <v>128</v>
       </c>
       <c r="G19" s="11">
         <v>0.70710678118654757</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="54">
         <v>8.4499999999999992E-2</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="55">
         <v>9.1923881554251165E-3</v>
       </c>
       <c r="J19">
@@ -7145,16 +10901,16 @@
       <c r="E20" s="3">
         <v>1.2E-2</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="53">
         <v>189.4</v>
       </c>
       <c r="G20" s="11">
         <v>7.2124891681027767</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="54">
         <v>0.159</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="55">
         <v>1.4142135623730963E-2</v>
       </c>
       <c r="J20">
@@ -7184,16 +10940,16 @@
       <c r="E21" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="53">
         <v>281.39999999999998</v>
       </c>
       <c r="G21" s="11">
         <v>0.84852813742384903</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="54">
         <v>0.10650000000000001</v>
       </c>
-      <c r="I21" s="56">
+      <c r="I21" s="55">
         <v>1.0606601717798213E-2</v>
       </c>
       <c r="J21">
@@ -7223,16 +10979,16 @@
       <c r="E22" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="53">
         <v>275.05</v>
       </c>
       <c r="G22" s="11">
         <v>9.5459415460183923</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="54">
         <v>0.3165</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="55">
         <v>3.3234018715767762E-2</v>
       </c>
       <c r="J22">
@@ -7262,16 +11018,16 @@
       <c r="E23" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="53">
         <v>175.3</v>
       </c>
       <c r="G23" s="11">
         <v>1.131370849898472</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="54">
         <v>0.16449999999999998</v>
       </c>
-      <c r="I23" s="56">
+      <c r="I23" s="55">
         <v>2.1920310216782975E-2</v>
       </c>
       <c r="J23">
@@ -7301,16 +11057,16 @@
       <c r="E24" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="53">
         <v>154.05000000000001</v>
       </c>
       <c r="G24" s="11">
         <v>5.3033008588991066</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="54">
         <v>0.10100000000000001</v>
       </c>
-      <c r="I24" s="56">
+      <c r="I24" s="55">
         <v>1.1313708498984762E-2</v>
       </c>
       <c r="J24">
@@ -7340,16 +11096,16 @@
       <c r="E25" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="53">
         <v>184.60000000000002</v>
       </c>
       <c r="G25" s="11">
         <v>1.8384776310850195</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="54">
         <v>0.11</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I25" s="55">
         <v>1.5556349186104039E-2</v>
       </c>
       <c r="J25">
@@ -7379,16 +11135,16 @@
       <c r="E26" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="53">
         <v>206.35</v>
       </c>
       <c r="G26" s="11">
         <v>5.1618795026618045</v>
       </c>
-      <c r="H26" s="55">
+      <c r="H26" s="54">
         <v>0.14050000000000001</v>
       </c>
-      <c r="I26" s="56">
+      <c r="I26" s="55">
         <v>3.1819805153394519E-2</v>
       </c>
       <c r="J26">
@@ -7418,16 +11174,16 @@
       <c r="E27" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="53">
         <v>89.050000000000011</v>
       </c>
       <c r="G27" s="11">
         <v>0.21213203435596226</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="54">
         <v>0.13350000000000001</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I27" s="55">
         <v>1.3435028842544395E-2</v>
       </c>
       <c r="J27">
@@ -7457,16 +11213,16 @@
       <c r="E28" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="53">
         <v>91.55</v>
       </c>
       <c r="G28" s="11">
         <v>0.35355339059327379</v>
       </c>
-      <c r="H28" s="55">
+      <c r="H28" s="54">
         <v>0.13750000000000001</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="55">
         <v>1.6263455967290587E-2</v>
       </c>
       <c r="J28">
@@ -7496,16 +11252,16 @@
       <c r="E29" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="53">
         <v>142.5</v>
       </c>
       <c r="G29" s="11">
         <v>0.14142135623730148</v>
       </c>
-      <c r="H29" s="55">
+      <c r="H29" s="54">
         <v>0.156</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I29" s="55">
         <v>4.2426406871192892E-3</v>
       </c>
       <c r="J29">
@@ -7535,16 +11291,16 @@
       <c r="E30" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="53">
         <v>135.10000000000002</v>
       </c>
       <c r="G30" s="11">
         <v>0.42426406871192451</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="54">
         <v>0.192</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I30" s="55">
         <v>9.8994949366116736E-3</v>
       </c>
       <c r="J30">
@@ -7574,16 +11330,16 @@
       <c r="E31" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="53">
         <v>94.800000000000011</v>
       </c>
       <c r="G31" s="11">
         <v>0.14142135623731153</v>
       </c>
-      <c r="H31" s="55">
+      <c r="H31" s="54">
         <v>0.14299999999999999</v>
       </c>
-      <c r="I31" s="56">
+      <c r="I31" s="55">
         <v>2.8284271247461927E-3</v>
       </c>
       <c r="J31">
@@ -7613,13 +11369,13 @@
       <c r="E32" s="3">
         <v>0.02</v>
       </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
@@ -7637,16 +11393,16 @@
       <c r="E33" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F33" s="54">
+      <c r="F33" s="53">
         <v>153.35</v>
       </c>
       <c r="G33" s="11">
         <v>1.0606601717798212</v>
       </c>
-      <c r="H33" s="55">
+      <c r="H33" s="54">
         <v>0.16</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I33" s="55">
         <v>1.2727922061357866E-2</v>
       </c>
       <c r="J33">
@@ -7676,16 +11432,16 @@
       <c r="E34" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F34" s="54">
+      <c r="F34" s="53">
         <v>113.85</v>
       </c>
       <c r="G34" s="11">
         <v>0.63639610306788674</v>
       </c>
-      <c r="H34" s="55">
+      <c r="H34" s="54">
         <v>0.17649999999999999</v>
       </c>
-      <c r="I34" s="56">
+      <c r="I34" s="55">
         <v>6.3639610306789329E-3</v>
       </c>
       <c r="J34">
@@ -7817,4 +11573,2078 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF8BD80-D61B-4706-A637-425D9536FE79}">
+  <dimension ref="A3:W35"/>
+  <sheetViews>
+    <sheetView topLeftCell="J10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6:S35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="H3" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="R3" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="67"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" s="75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="72">
+        <v>1.1411255079629725</v>
+      </c>
+      <c r="C6" s="68">
+        <v>0.70033566636733735</v>
+      </c>
+      <c r="D6" s="80">
+        <v>8.3327613262213801E-2</v>
+      </c>
+      <c r="E6" s="68">
+        <f>C6/B6</f>
+        <v>0.61372361013777454</v>
+      </c>
+      <c r="F6" s="80">
+        <f>D6/C6</f>
+        <v>0.11898239267812347</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="68">
+        <v>1.1752344682907394</v>
+      </c>
+      <c r="J6" s="68">
+        <v>0.70033566636733735</v>
+      </c>
+      <c r="K6" s="80">
+        <v>8.3327613262213801E-2</v>
+      </c>
+      <c r="L6" s="68">
+        <f>J6/I6</f>
+        <v>0.59591144172779864</v>
+      </c>
+      <c r="M6" s="80">
+        <f>K6/J6</f>
+        <v>0.11898239267812347</v>
+      </c>
+      <c r="O6" s="82">
+        <v>0.59591144172779864</v>
+      </c>
+      <c r="P6" s="81">
+        <v>7.0902969161043633E-2</v>
+      </c>
+      <c r="R6" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1.006472491909385</v>
+      </c>
+      <c r="T6" s="68">
+        <v>0.70033566636733735</v>
+      </c>
+      <c r="U6" s="80">
+        <v>8.3327613262213801E-2</v>
+      </c>
+      <c r="V6" s="11">
+        <f>T6/S6</f>
+        <v>0.69583190002413908</v>
+      </c>
+      <c r="W6" s="11">
+        <f>U6/S6</f>
+        <v>8.2791744366636874E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="72">
+        <v>1.1262087733115114</v>
+      </c>
+      <c r="C7" s="68">
+        <v>0.95070601683880052</v>
+      </c>
+      <c r="D7" s="80">
+        <v>0.16608781523863214</v>
+      </c>
+      <c r="E7" s="68">
+        <f t="shared" ref="E7:E35" si="0">C7/B7</f>
+        <v>0.84416498909286464</v>
+      </c>
+      <c r="F7" s="80">
+        <f t="shared" ref="F7:F35" si="1">D7/C7</f>
+        <v>0.17469944682888611</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="68">
+        <v>1.1241271111385311</v>
+      </c>
+      <c r="J7" s="68">
+        <v>0.95070601683880052</v>
+      </c>
+      <c r="K7" s="80">
+        <v>0.16608781523863214</v>
+      </c>
+      <c r="L7" s="68">
+        <f t="shared" ref="L7:L30" si="2">J7/I7</f>
+        <v>0.84572821651451191</v>
+      </c>
+      <c r="M7" s="80">
+        <f t="shared" ref="M7:M30" si="3">K7/J7</f>
+        <v>0.17469944682888611</v>
+      </c>
+      <c r="O7" s="82">
+        <v>0.84572821651451191</v>
+      </c>
+      <c r="P7" s="81">
+        <v>0.14774825159266566</v>
+      </c>
+      <c r="R7" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1.145631067961165</v>
+      </c>
+      <c r="T7" s="68">
+        <v>0.95070601683880052</v>
+      </c>
+      <c r="U7" s="80">
+        <v>0.16608781523863214</v>
+      </c>
+      <c r="V7" s="11">
+        <f t="shared" ref="V7:V35" si="4">T7/S7</f>
+        <v>0.82985355707115638</v>
+      </c>
+      <c r="W7" s="11">
+        <f t="shared" ref="W7:W35" si="5">U7/S7</f>
+        <v>0.14497495736931451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="72">
+        <v>1.0312321434934666</v>
+      </c>
+      <c r="C8" s="68">
+        <v>0.7088594177307469</v>
+      </c>
+      <c r="D8" s="80">
+        <v>0.11671302655446417</v>
+      </c>
+      <c r="E8" s="68">
+        <f t="shared" si="0"/>
+        <v>0.68739073176032928</v>
+      </c>
+      <c r="F8" s="80">
+        <f t="shared" si="1"/>
+        <v>0.16464904554431189</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="68">
+        <v>1.1096019515885367</v>
+      </c>
+      <c r="J8" s="68">
+        <v>0.7088594177307469</v>
+      </c>
+      <c r="K8" s="80">
+        <v>0.11671302655446417</v>
+      </c>
+      <c r="L8" s="68">
+        <f t="shared" si="2"/>
+        <v>0.6388411778799814</v>
+      </c>
+      <c r="M8" s="80">
+        <f t="shared" si="3"/>
+        <v>0.16464904554431189</v>
+      </c>
+      <c r="O8" s="82">
+        <v>0.6388411778799814</v>
+      </c>
+      <c r="P8" s="81">
+        <v>0.10518459019234293</v>
+      </c>
+      <c r="R8" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>0.95415318230852209</v>
+      </c>
+      <c r="T8" s="68">
+        <v>0.7088594177307469</v>
+      </c>
+      <c r="U8" s="80">
+        <v>0.11671302655446417</v>
+      </c>
+      <c r="V8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.74291993243233734</v>
+      </c>
+      <c r="W8" s="11">
+        <f t="shared" si="5"/>
+        <v>0.12232105779082904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="72">
+        <v>1.1912250543420502</v>
+      </c>
+      <c r="C9" s="68">
+        <v>1.2745700517539258</v>
+      </c>
+      <c r="D9" s="80">
+        <v>0.19432267746819457</v>
+      </c>
+      <c r="E9" s="68">
+        <f t="shared" si="0"/>
+        <v>1.0699657861527347</v>
+      </c>
+      <c r="F9" s="80">
+        <f t="shared" si="1"/>
+        <v>0.15246135526312474</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="68">
+        <v>1.2042629487522978</v>
+      </c>
+      <c r="J9" s="68">
+        <v>1.2745700517539258</v>
+      </c>
+      <c r="K9" s="80">
+        <v>0.19432267746819457</v>
+      </c>
+      <c r="L9" s="68">
+        <f t="shared" si="2"/>
+        <v>1.0583818534602192</v>
+      </c>
+      <c r="M9" s="80">
+        <f t="shared" si="3"/>
+        <v>0.15246135526312474</v>
+      </c>
+      <c r="O9" s="82">
+        <v>1.0583818534602192</v>
+      </c>
+      <c r="P9" s="81">
+        <v>0.1613623317644429</v>
+      </c>
+      <c r="R9" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>1.1364617044228695</v>
+      </c>
+      <c r="T9" s="68">
+        <v>1.2745700517539258</v>
+      </c>
+      <c r="U9" s="80">
+        <v>0.19432267746819457</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" si="4"/>
+        <v>1.1215248580691877</v>
+      </c>
+      <c r="W9" s="11">
+        <f t="shared" si="5"/>
+        <v>0.17098919982251196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="72">
+        <v>1.1721548524346668</v>
+      </c>
+      <c r="C10" s="68">
+        <v>1.2369849324980382</v>
+      </c>
+      <c r="D10" s="80">
+        <v>4.6215655381021604E-2</v>
+      </c>
+      <c r="E10" s="68">
+        <f t="shared" si="0"/>
+        <v>1.0553084602505494</v>
+      </c>
+      <c r="F10" s="80">
+        <f t="shared" si="1"/>
+        <v>3.7361534620871301E-2</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="68">
+        <v>1.2060915925412041</v>
+      </c>
+      <c r="J10" s="68">
+        <v>1.2369849324980382</v>
+      </c>
+      <c r="K10" s="80">
+        <v>4.6215655381021604E-2</v>
+      </c>
+      <c r="L10" s="68">
+        <f t="shared" si="2"/>
+        <v>1.0256144227750916</v>
+      </c>
+      <c r="M10" s="80">
+        <f t="shared" si="3"/>
+        <v>3.7361534620871301E-2</v>
+      </c>
+      <c r="O10" s="82">
+        <v>1.0256144227750916</v>
+      </c>
+      <c r="P10" s="81">
+        <v>3.8318528764176525E-2</v>
+      </c>
+      <c r="R10" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>1.2529665587918015</v>
+      </c>
+      <c r="T10" s="68">
+        <v>1.2369849324980382</v>
+      </c>
+      <c r="U10" s="80">
+        <v>4.6215655381021604E-2</v>
+      </c>
+      <c r="V10" s="11">
+        <f t="shared" si="4"/>
+        <v>0.98724496980256682</v>
+      </c>
+      <c r="W10" s="11">
+        <f t="shared" si="5"/>
+        <v>3.6884987118559642E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="72">
+        <v>1.2332551339443043</v>
+      </c>
+      <c r="C11" s="68">
+        <v>1.0975239633309288</v>
+      </c>
+      <c r="D11" s="80">
+        <v>0.26100238481902421</v>
+      </c>
+      <c r="E11" s="68">
+        <f t="shared" si="0"/>
+        <v>0.88994072120399925</v>
+      </c>
+      <c r="F11" s="80">
+        <f t="shared" si="1"/>
+        <v>0.23781019234140036</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="68">
+        <v>1.1799305415710242</v>
+      </c>
+      <c r="J11" s="68">
+        <v>1.0975239633309288</v>
+      </c>
+      <c r="K11" s="80">
+        <v>0.26100238481902421</v>
+      </c>
+      <c r="L11" s="68">
+        <f t="shared" si="2"/>
+        <v>0.93015980573706081</v>
+      </c>
+      <c r="M11" s="80">
+        <f t="shared" si="3"/>
+        <v>0.23781019234140036</v>
+      </c>
+      <c r="O11" s="82">
+        <v>0.93015980573706081</v>
+      </c>
+      <c r="P11" s="81">
+        <v>0.22120148231057002</v>
+      </c>
+      <c r="R11" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>1.2362459546925566</v>
+      </c>
+      <c r="T11" s="68">
+        <v>1.0975239633309288</v>
+      </c>
+      <c r="U11" s="80">
+        <v>0.26100238481902421</v>
+      </c>
+      <c r="V11" s="11">
+        <f t="shared" si="4"/>
+        <v>0.88778770855826439</v>
+      </c>
+      <c r="W11" s="11">
+        <f t="shared" si="5"/>
+        <v>0.21112496573057193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="72">
+        <v>1.2888884521396726</v>
+      </c>
+      <c r="C12" s="68">
+        <v>0.53619540385798958</v>
+      </c>
+      <c r="D12" s="80">
+        <v>4.5174325568911523E-2</v>
+      </c>
+      <c r="E12" s="68">
+        <f t="shared" si="0"/>
+        <v>0.41601381637631729</v>
+      </c>
+      <c r="F12" s="80">
+        <f t="shared" si="1"/>
+        <v>8.4249744111711683E-2</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="68">
+        <v>0.93964869734003365</v>
+      </c>
+      <c r="J12" s="68">
+        <v>0.53619540385798958</v>
+      </c>
+      <c r="K12" s="80">
+        <v>4.5174325568911523E-2</v>
+      </c>
+      <c r="L12" s="68">
+        <f t="shared" si="2"/>
+        <v>0.57063390326177921</v>
+      </c>
+      <c r="M12" s="80">
+        <f t="shared" si="3"/>
+        <v>8.4249744111711683E-2</v>
+      </c>
+      <c r="O12" s="82">
+        <v>0.57063390326177921</v>
+      </c>
+      <c r="P12" s="81">
+        <v>4.807576033127213E-2</v>
+      </c>
+      <c r="R12" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>1.3419633225458469</v>
+      </c>
+      <c r="T12" s="68">
+        <v>0.53619540385798958</v>
+      </c>
+      <c r="U12" s="80">
+        <v>4.5174325568911523E-2</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="4"/>
+        <v>0.39956040142793914</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="5"/>
+        <v>3.3662861577476673E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="72">
+        <v>1.5652892985513975</v>
+      </c>
+      <c r="C13" s="68">
+        <v>3.2916954877043714</v>
+      </c>
+      <c r="D13" s="80">
+        <v>0.15988578331299538</v>
+      </c>
+      <c r="E13" s="68">
+        <f t="shared" si="0"/>
+        <v>2.1029310624883735</v>
+      </c>
+      <c r="F13" s="80">
+        <f t="shared" si="1"/>
+        <v>4.8572470907538211E-2</v>
+      </c>
+      <c r="H13" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="68">
+        <v>1.508896536890757</v>
+      </c>
+      <c r="J13" s="68">
+        <v>3.2916954877043714</v>
+      </c>
+      <c r="K13" s="80">
+        <v>0.15988578331299538</v>
+      </c>
+      <c r="L13" s="68">
+        <f t="shared" si="2"/>
+        <v>2.1815249801601788</v>
+      </c>
+      <c r="M13" s="80">
+        <f t="shared" si="3"/>
+        <v>4.8572470907538211E-2</v>
+      </c>
+      <c r="O13" s="82">
+        <v>2.1815249801601788</v>
+      </c>
+      <c r="P13" s="81">
+        <v>0.10596205863289816</v>
+      </c>
+      <c r="R13" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>1.389967637540453</v>
+      </c>
+      <c r="T13" s="68">
+        <v>3.2916954877043714</v>
+      </c>
+      <c r="U13" s="80">
+        <v>0.15988578331299538</v>
+      </c>
+      <c r="V13" s="11">
+        <f t="shared" si="4"/>
+        <v>2.3681813869630983</v>
+      </c>
+      <c r="W13" s="11">
+        <f t="shared" si="5"/>
+        <v>0.11502842152203858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="72">
+        <v>1.5242629747242404</v>
+      </c>
+      <c r="C14" s="68">
+        <v>2.9223092489342157</v>
+      </c>
+      <c r="D14" s="80">
+        <v>0.24461239102918622</v>
+      </c>
+      <c r="E14" s="68">
+        <f t="shared" si="0"/>
+        <v>1.9171949311849554</v>
+      </c>
+      <c r="F14" s="80">
+        <f t="shared" si="1"/>
+        <v>8.3705169505382732E-2</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="68">
+        <v>1.3523124619759672</v>
+      </c>
+      <c r="J14" s="68">
+        <v>2.9223092489342157</v>
+      </c>
+      <c r="K14" s="80">
+        <v>0.24461239102918622</v>
+      </c>
+      <c r="L14" s="68">
+        <f t="shared" si="2"/>
+        <v>2.1609719137426318</v>
+      </c>
+      <c r="M14" s="80">
+        <f t="shared" si="3"/>
+        <v>8.3705169505382732E-2</v>
+      </c>
+      <c r="O14" s="82">
+        <v>2.1609719137426318</v>
+      </c>
+      <c r="P14" s="81">
+        <v>0.18088452033619828</v>
+      </c>
+      <c r="R14" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <v>1.5625674217907226</v>
+      </c>
+      <c r="T14" s="68">
+        <v>2.9223092489342157</v>
+      </c>
+      <c r="U14" s="80">
+        <v>0.24461239102918622</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" si="4"/>
+        <v>1.8701972204087112</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" si="5"/>
+        <v>0.15654517534280679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="72">
+        <v>1.6669772334311641</v>
+      </c>
+      <c r="C15" s="68">
+        <v>6.2177597145004251</v>
+      </c>
+      <c r="D15" s="80">
+        <v>0.35197578417475833</v>
+      </c>
+      <c r="E15" s="68">
+        <f t="shared" si="0"/>
+        <v>3.7299607875881531</v>
+      </c>
+      <c r="F15" s="80">
+        <f t="shared" si="1"/>
+        <v>5.66081354597728E-2</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="68">
+        <v>1.3888042944218604</v>
+      </c>
+      <c r="J15" s="68">
+        <v>6.2177597145004251</v>
+      </c>
+      <c r="K15" s="80">
+        <v>0.35197578417475833</v>
+      </c>
+      <c r="L15" s="68">
+        <f t="shared" si="2"/>
+        <v>4.4770596832642937</v>
+      </c>
+      <c r="M15" s="80">
+        <f t="shared" si="3"/>
+        <v>5.66081354597728E-2</v>
+      </c>
+      <c r="O15" s="82">
+        <v>4.4770596832642937</v>
+      </c>
+      <c r="P15" s="81">
+        <v>0.25343800101171265</v>
+      </c>
+      <c r="R15" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>1.5614886731391586</v>
+      </c>
+      <c r="T15" s="68">
+        <v>6.2177597145004251</v>
+      </c>
+      <c r="U15" s="80">
+        <v>0.35197578417475833</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" si="4"/>
+        <v>3.9819435270064898</v>
+      </c>
+      <c r="W15" s="11">
+        <f t="shared" si="5"/>
+        <v>0.22541039856994885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="72">
+        <v>1.5938105950818111</v>
+      </c>
+      <c r="C16" s="68">
+        <v>7.5516831140958658</v>
+      </c>
+      <c r="D16" s="80">
+        <v>0.1787380126605948</v>
+      </c>
+      <c r="E16" s="68">
+        <f t="shared" si="0"/>
+        <v>4.7381308277149667</v>
+      </c>
+      <c r="F16" s="80">
+        <f t="shared" si="1"/>
+        <v>2.366863253662815E-2</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="68">
+        <v>1.2835543973795724</v>
+      </c>
+      <c r="J16" s="68">
+        <v>7.5516831140958658</v>
+      </c>
+      <c r="K16" s="80">
+        <v>0.1787380126605948</v>
+      </c>
+      <c r="L16" s="68">
+        <f t="shared" si="2"/>
+        <v>5.8834149370785749</v>
+      </c>
+      <c r="M16" s="80">
+        <f t="shared" si="3"/>
+        <v>2.366863253662815E-2</v>
+      </c>
+      <c r="O16" s="82">
+        <v>5.8834149370785749</v>
+      </c>
+      <c r="P16" s="81">
+        <v>0.13925238620622202</v>
+      </c>
+      <c r="R16" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16">
+        <v>1.5830636461704424</v>
+      </c>
+      <c r="T16" s="68">
+        <v>7.5516831140958658</v>
+      </c>
+      <c r="U16" s="80">
+        <v>0.1787380126605948</v>
+      </c>
+      <c r="V16" s="11">
+        <f t="shared" si="4"/>
+        <v>4.7702965906418173</v>
+      </c>
+      <c r="W16" s="11">
+        <f t="shared" si="5"/>
+        <v>0.11290639709463125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="72">
+        <v>1.4990016783360798</v>
+      </c>
+      <c r="C17" s="68">
+        <v>3.1227262269718179</v>
+      </c>
+      <c r="D17" s="80">
+        <v>0.51391033316298784</v>
+      </c>
+      <c r="E17" s="68">
+        <f t="shared" si="0"/>
+        <v>2.0832039564079095</v>
+      </c>
+      <c r="F17" s="80">
+        <f t="shared" si="1"/>
+        <v>0.16457104972065995</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="68">
+        <v>1.2334346019075559</v>
+      </c>
+      <c r="J17" s="68">
+        <v>3.1227262269718179</v>
+      </c>
+      <c r="K17" s="80">
+        <v>0.51391033316298784</v>
+      </c>
+      <c r="L17" s="68">
+        <f t="shared" si="2"/>
+        <v>2.5317323043657094</v>
+      </c>
+      <c r="M17" s="80">
+        <f t="shared" si="3"/>
+        <v>0.16457104972065995</v>
+      </c>
+      <c r="O17" s="82">
+        <v>2.5317323043657094</v>
+      </c>
+      <c r="P17" s="81">
+        <v>0.41664984294117008</v>
+      </c>
+      <c r="R17" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17">
+        <v>1.5194174757281553</v>
+      </c>
+      <c r="T17" s="68">
+        <v>3.1227262269718179</v>
+      </c>
+      <c r="U17" s="80">
+        <v>0.51391033316298784</v>
+      </c>
+      <c r="V17" s="11">
+        <f t="shared" si="4"/>
+        <v>2.0552127883584488</v>
+      </c>
+      <c r="W17" s="11">
+        <f t="shared" si="5"/>
+        <v>0.33822852597947445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="72">
+        <v>1.6222012879688907</v>
+      </c>
+      <c r="C18" s="68">
+        <v>5.95697124302714</v>
+      </c>
+      <c r="D18" s="80">
+        <v>0.1604419021858472</v>
+      </c>
+      <c r="E18" s="68">
+        <f t="shared" si="0"/>
+        <v>3.6721529487167919</v>
+      </c>
+      <c r="F18" s="80">
+        <f t="shared" si="1"/>
+        <v>2.6933469315241449E-2</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="77">
+        <v>1.3065300806772928</v>
+      </c>
+      <c r="J18" s="68">
+        <v>5.95697124302714</v>
+      </c>
+      <c r="K18" s="80">
+        <v>0.1604419021858472</v>
+      </c>
+      <c r="L18" s="68">
+        <f t="shared" si="2"/>
+        <v>4.5593831562906706</v>
+      </c>
+      <c r="M18" s="80">
+        <f t="shared" si="3"/>
+        <v>2.6933469315241449E-2</v>
+      </c>
+      <c r="O18" s="82">
+        <v>4.5593831562906706</v>
+      </c>
+      <c r="P18" s="81">
+        <v>0.12280000633638349</v>
+      </c>
+      <c r="R18" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18">
+        <v>1.6477885652642934</v>
+      </c>
+      <c r="T18" s="68">
+        <v>5.95697124302714</v>
+      </c>
+      <c r="U18" s="80">
+        <v>0.1604419021858472</v>
+      </c>
+      <c r="V18" s="11">
+        <f t="shared" si="4"/>
+        <v>3.61513082964724</v>
+      </c>
+      <c r="W18" s="11">
+        <f t="shared" si="5"/>
+        <v>9.7368015270887301E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="72">
+        <v>1.4208504624777543</v>
+      </c>
+      <c r="C19" s="68">
+        <v>2.222314897815048</v>
+      </c>
+      <c r="D19" s="80">
+        <v>0.36016064767635292</v>
+      </c>
+      <c r="E19" s="68">
+        <f t="shared" si="0"/>
+        <v>1.5640737406944694</v>
+      </c>
+      <c r="F19" s="80">
+        <f t="shared" si="1"/>
+        <v>0.16206553267066623</v>
+      </c>
+      <c r="H19" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="77">
+        <v>1.2402390058478003</v>
+      </c>
+      <c r="J19" s="68">
+        <v>2.222314897815048</v>
+      </c>
+      <c r="K19" s="80">
+        <v>0.36016064767635292</v>
+      </c>
+      <c r="L19" s="68">
+        <f t="shared" si="2"/>
+        <v>1.791844061778981</v>
+      </c>
+      <c r="M19" s="80">
+        <f t="shared" si="3"/>
+        <v>0.16206553267066623</v>
+      </c>
+      <c r="O19" s="82">
+        <v>1.791844061778981</v>
+      </c>
+      <c r="P19" s="81">
+        <v>0.29039616233498072</v>
+      </c>
+      <c r="R19" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19">
+        <v>1.3284789644012944</v>
+      </c>
+      <c r="T19" s="68">
+        <v>2.222314897815048</v>
+      </c>
+      <c r="U19" s="80">
+        <v>0.36016064767635292</v>
+      </c>
+      <c r="V19" s="11">
+        <f t="shared" si="4"/>
+        <v>1.6728265613272835</v>
+      </c>
+      <c r="W19" s="11">
+        <f t="shared" si="5"/>
+        <v>0.27110752772714508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="72">
+        <v>1.9893614109059043</v>
+      </c>
+      <c r="C20" s="68">
+        <v>2.0290706518143549</v>
+      </c>
+      <c r="D20" s="80">
+        <v>0.2573066472754249</v>
+      </c>
+      <c r="E20" s="68">
+        <f t="shared" si="0"/>
+        <v>1.0199607978172092</v>
+      </c>
+      <c r="F20" s="80">
+        <f t="shared" si="1"/>
+        <v>0.12681009754162398</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="77">
+        <v>1.4753077887210493</v>
+      </c>
+      <c r="J20" s="68">
+        <v>2.0290706518143549</v>
+      </c>
+      <c r="K20" s="80">
+        <v>0.2573066472754249</v>
+      </c>
+      <c r="L20" s="68">
+        <f t="shared" si="2"/>
+        <v>1.3753541242897964</v>
+      </c>
+      <c r="M20" s="80">
+        <f t="shared" si="3"/>
+        <v>0.12681009754162398</v>
+      </c>
+      <c r="O20" s="82">
+        <v>1.3753541242897964</v>
+      </c>
+      <c r="P20" s="81">
+        <v>0.17440879065546394</v>
+      </c>
+      <c r="R20" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="S20">
+        <v>1.8532901833872706</v>
+      </c>
+      <c r="T20" s="68">
+        <v>2.0290706518143549</v>
+      </c>
+      <c r="U20" s="80">
+        <v>0.2573066472754249</v>
+      </c>
+      <c r="V20" s="11">
+        <f t="shared" si="4"/>
+        <v>1.0948477847682812</v>
+      </c>
+      <c r="W20" s="11">
+        <f t="shared" si="5"/>
+        <v>0.1388377543796967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="72">
+        <v>2.227502295684114</v>
+      </c>
+      <c r="C21" s="68">
+        <v>1.1168649822247532</v>
+      </c>
+      <c r="D21" s="80">
+        <v>0.17650636043609319</v>
+      </c>
+      <c r="E21" s="68">
+        <f t="shared" si="0"/>
+        <v>0.50139790400608308</v>
+      </c>
+      <c r="F21" s="80">
+        <f t="shared" si="1"/>
+        <v>0.1580373306041874</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="77">
+        <v>0.79104476914617194</v>
+      </c>
+      <c r="J21" s="68">
+        <v>1.1168649822247532</v>
+      </c>
+      <c r="K21" s="80">
+        <v>0.17650636043609319</v>
+      </c>
+      <c r="L21" s="68">
+        <f t="shared" si="2"/>
+        <v>1.4118859333717118</v>
+      </c>
+      <c r="M21" s="80">
+        <f t="shared" si="3"/>
+        <v>0.1580373306041874</v>
+      </c>
+      <c r="O21" s="82">
+        <v>1.4118859333717118</v>
+      </c>
+      <c r="P21" s="81">
+        <v>0.22313068402766689</v>
+      </c>
+      <c r="R21" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21">
+        <v>1.9439050701186622</v>
+      </c>
+      <c r="T21" s="68">
+        <v>1.1168649822247532</v>
+      </c>
+      <c r="U21" s="80">
+        <v>0.17650636043609319</v>
+      </c>
+      <c r="V21" s="11">
+        <f t="shared" si="4"/>
+        <v>0.57454708020108003</v>
+      </c>
+      <c r="W21" s="11">
+        <f t="shared" si="5"/>
+        <v>9.0799886861408663E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="72">
+        <v>1.7003902662993573</v>
+      </c>
+      <c r="C22" s="68">
+        <v>7.1489481116911788</v>
+      </c>
+      <c r="D22" s="80">
+        <v>1.3788808178014829</v>
+      </c>
+      <c r="E22" s="68">
+        <f t="shared" si="0"/>
+        <v>4.204298421002953</v>
+      </c>
+      <c r="F22" s="80">
+        <f t="shared" si="1"/>
+        <v>0.19287883983190504</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="77">
+        <v>0.66349452431970024</v>
+      </c>
+      <c r="J22" s="68">
+        <v>7.1489481116911788</v>
+      </c>
+      <c r="K22" s="80">
+        <v>1.3788808178014829</v>
+      </c>
+      <c r="L22" s="68">
+        <f t="shared" si="2"/>
+        <v>10.774690445292217</v>
+      </c>
+      <c r="M22" s="80">
+        <f t="shared" si="3"/>
+        <v>0.19287883983190504</v>
+      </c>
+      <c r="O22" s="82">
+        <v>10.774690445292217</v>
+      </c>
+      <c r="P22" s="81">
+        <v>2.0782097926358754</v>
+      </c>
+      <c r="R22" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22">
+        <v>1.9519956850053937</v>
+      </c>
+      <c r="T22" s="68">
+        <v>7.1489481116911788</v>
+      </c>
+      <c r="U22" s="80">
+        <v>1.3788808178014829</v>
+      </c>
+      <c r="V22" s="11">
+        <f t="shared" si="4"/>
+        <v>3.6623790547320936</v>
+      </c>
+      <c r="W22" s="11">
+        <f t="shared" si="5"/>
+        <v>0.70639542310139525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="72">
+        <v>1.9479109274563822</v>
+      </c>
+      <c r="C23" s="68">
+        <v>6.1799111703264877</v>
+      </c>
+      <c r="D23" s="80">
+        <v>0.6398085938492859</v>
+      </c>
+      <c r="E23" s="68">
+        <f t="shared" si="0"/>
+        <v>3.1725840659440876</v>
+      </c>
+      <c r="F23" s="80">
+        <f t="shared" si="1"/>
+        <v>0.10353038679931131</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="77">
+        <v>0.54826363969874181</v>
+      </c>
+      <c r="J23" s="68">
+        <v>6.1799111703264877</v>
+      </c>
+      <c r="K23" s="80">
+        <v>0.6398085938492859</v>
+      </c>
+      <c r="L23" s="68">
+        <f t="shared" si="2"/>
+        <v>11.271787371714465</v>
+      </c>
+      <c r="M23" s="80">
+        <f t="shared" si="3"/>
+        <v>0.10353038679931131</v>
+      </c>
+      <c r="O23" s="82">
+        <v>11.271787371714465</v>
+      </c>
+      <c r="P23" s="81">
+        <v>1.1669725065131913</v>
+      </c>
+      <c r="R23" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23">
+        <v>2.6952535059331177</v>
+      </c>
+      <c r="T23" s="68">
+        <v>6.1799111703264877</v>
+      </c>
+      <c r="U23" s="80">
+        <v>0.6398085938492859</v>
+      </c>
+      <c r="V23" s="11">
+        <f t="shared" si="4"/>
+        <v>2.2928867940334814</v>
+      </c>
+      <c r="W23" s="11">
+        <f t="shared" si="5"/>
+        <v>0.2373834566733192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="72">
+        <v>1.6558080808080806</v>
+      </c>
+      <c r="C24" s="68">
+        <v>1.4607169431483367</v>
+      </c>
+      <c r="D24" s="80">
+        <v>0.2746989803887957</v>
+      </c>
+      <c r="E24" s="68">
+        <f t="shared" si="0"/>
+        <v>0.88217768718429368</v>
+      </c>
+      <c r="F24" s="80">
+        <f t="shared" si="1"/>
+        <v>0.18805763955659124</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="77">
+        <v>0.86219145089684945</v>
+      </c>
+      <c r="J24" s="68">
+        <v>1.4607169431483367</v>
+      </c>
+      <c r="K24" s="80">
+        <v>0.2746989803887957</v>
+      </c>
+      <c r="L24" s="68">
+        <f t="shared" si="2"/>
+        <v>1.6941909382526381</v>
+      </c>
+      <c r="M24" s="80">
+        <f t="shared" si="3"/>
+        <v>0.18805763955659124</v>
+      </c>
+      <c r="O24" s="82">
+        <v>1.6941909382526381</v>
+      </c>
+      <c r="P24" s="81">
+        <v>0.31860554880595776</v>
+      </c>
+      <c r="R24" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24">
+        <v>1.4412081984897518</v>
+      </c>
+      <c r="T24" s="68">
+        <v>1.4607169431483367</v>
+      </c>
+      <c r="U24" s="80">
+        <v>0.2746989803887957</v>
+      </c>
+      <c r="V24" s="11">
+        <f t="shared" si="4"/>
+        <v>1.0135363819599612</v>
+      </c>
+      <c r="W24" s="11">
+        <f t="shared" si="5"/>
+        <v>0.19060325959611799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="72">
+        <v>2.0384067952249771</v>
+      </c>
+      <c r="C25" s="68">
+        <v>1.2071352039050676</v>
+      </c>
+      <c r="D25" s="80">
+        <v>5.3350903291895485E-2</v>
+      </c>
+      <c r="E25" s="68">
+        <f t="shared" si="0"/>
+        <v>0.59219543750188353</v>
+      </c>
+      <c r="F25" s="80">
+        <f t="shared" si="1"/>
+        <v>4.4196294764087707E-2</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="77">
+        <v>0.6252063753927698</v>
+      </c>
+      <c r="J25" s="68">
+        <v>1.2071352039050676</v>
+      </c>
+      <c r="K25" s="80">
+        <v>5.3350903291895485E-2</v>
+      </c>
+      <c r="L25" s="68">
+        <f t="shared" si="2"/>
+        <v>1.9307787818809685</v>
+      </c>
+      <c r="M25" s="80">
+        <f t="shared" si="3"/>
+        <v>4.4196294764087707E-2</v>
+      </c>
+      <c r="O25" s="82">
+        <v>1.9307787818809685</v>
+      </c>
+      <c r="P25" s="81">
+        <v>8.5333268168257495E-2</v>
+      </c>
+      <c r="R25" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25">
+        <v>1.7125134843581444</v>
+      </c>
+      <c r="T25" s="68">
+        <v>1.2071352039050676</v>
+      </c>
+      <c r="U25" s="80">
+        <v>5.3350903291895485E-2</v>
+      </c>
+      <c r="V25" s="11">
+        <f t="shared" si="4"/>
+        <v>0.70489091906771506</v>
+      </c>
+      <c r="W25" s="11">
+        <f t="shared" si="5"/>
+        <v>3.1153566835645428E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="72">
+        <v>1.7270661157024794</v>
+      </c>
+      <c r="C26" s="68">
+        <v>3.1933180411554356</v>
+      </c>
+      <c r="D26" s="80">
+        <v>0.54203183155382895</v>
+      </c>
+      <c r="E26" s="68">
+        <f t="shared" si="0"/>
+        <v>1.8489842468228626</v>
+      </c>
+      <c r="F26" s="80">
+        <f t="shared" si="1"/>
+        <v>0.16973938222504953</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="77">
+        <v>0.85421953240154658</v>
+      </c>
+      <c r="J26" s="68">
+        <v>3.1933180411554356</v>
+      </c>
+      <c r="K26" s="80">
+        <v>0.54203183155382895</v>
+      </c>
+      <c r="L26" s="68">
+        <f t="shared" si="2"/>
+        <v>3.738287313774908</v>
+      </c>
+      <c r="M26" s="80">
+        <f t="shared" si="3"/>
+        <v>0.16973938222504953</v>
+      </c>
+      <c r="O26" s="82">
+        <v>3.738287313774908</v>
+      </c>
+      <c r="P26" s="81">
+        <v>0.63453457921989276</v>
+      </c>
+      <c r="R26" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26">
+        <v>1.4665587918015104</v>
+      </c>
+      <c r="T26" s="68">
+        <v>3.1933180411554356</v>
+      </c>
+      <c r="U26" s="80">
+        <v>0.54203183155382895</v>
+      </c>
+      <c r="V26" s="11">
+        <f t="shared" si="4"/>
+        <v>2.1774224524833312</v>
+      </c>
+      <c r="W26" s="11">
+        <f t="shared" si="5"/>
+        <v>0.36959434192747287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="72">
+        <v>1.7469467401285583</v>
+      </c>
+      <c r="C27" s="68">
+        <v>2.3317642454398886</v>
+      </c>
+      <c r="D27" s="80">
+        <v>0.88852366996955723</v>
+      </c>
+      <c r="E27" s="68">
+        <f t="shared" si="0"/>
+        <v>1.3347655036514126</v>
+      </c>
+      <c r="F27" s="80">
+        <f t="shared" si="1"/>
+        <v>0.38105210323350541</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="77">
+        <v>0.70091388063530535</v>
+      </c>
+      <c r="J27" s="68">
+        <v>2.3317642454398886</v>
+      </c>
+      <c r="K27" s="80">
+        <v>0.88852366996955723</v>
+      </c>
+      <c r="L27" s="68">
+        <f t="shared" si="2"/>
+        <v>3.3267485633561535</v>
+      </c>
+      <c r="M27" s="80">
+        <f t="shared" si="3"/>
+        <v>0.38105210323350541</v>
+      </c>
+      <c r="O27" s="82">
+        <v>3.3267485633561535</v>
+      </c>
+      <c r="P27" s="81">
+        <v>1.2676645369959048</v>
+      </c>
+      <c r="R27" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27">
+        <v>1.5771305285868391</v>
+      </c>
+      <c r="T27" s="68">
+        <v>2.3317642454398886</v>
+      </c>
+      <c r="U27" s="80">
+        <v>0.88852366996955723</v>
+      </c>
+      <c r="V27" s="11">
+        <f t="shared" si="4"/>
+        <v>1.47848526369547</v>
+      </c>
+      <c r="W27" s="11">
+        <f t="shared" si="5"/>
+        <v>0.56337991933090259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="72">
+        <v>2.0611111111111109</v>
+      </c>
+      <c r="C28" s="68">
+        <v>5.747058176595897</v>
+      </c>
+      <c r="D28" s="80">
+        <v>0.82714889960242399</v>
+      </c>
+      <c r="E28" s="68">
+        <f t="shared" si="0"/>
+        <v>2.7883301126341284</v>
+      </c>
+      <c r="F28" s="80">
+        <f t="shared" si="1"/>
+        <v>0.1439256179745794</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="77">
+        <v>0.81642052170532509</v>
+      </c>
+      <c r="J28" s="68">
+        <v>5.747058176595897</v>
+      </c>
+      <c r="K28" s="80">
+        <v>0.82714889960242399</v>
+      </c>
+      <c r="L28" s="68">
+        <f t="shared" si="2"/>
+        <v>7.0393357636228213</v>
+      </c>
+      <c r="M28" s="80">
+        <f t="shared" si="3"/>
+        <v>0.1439256179745794</v>
+      </c>
+      <c r="O28" s="82">
+        <v>7.0393357636228213</v>
+      </c>
+      <c r="P28" s="81">
+        <v>1.0131407499099725</v>
+      </c>
+      <c r="R28" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28">
+        <v>1.8381877022653721</v>
+      </c>
+      <c r="T28" s="68">
+        <v>5.747058176595897</v>
+      </c>
+      <c r="U28" s="80">
+        <v>0.82714889960242399</v>
+      </c>
+      <c r="V28" s="11">
+        <f t="shared" si="4"/>
+        <v>3.1264805925495285</v>
+      </c>
+      <c r="W28" s="11">
+        <f t="shared" si="5"/>
+        <v>0.44998065136822013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="72">
+        <v>2.4398760330578511</v>
+      </c>
+      <c r="C29" s="68">
+        <v>7.5065357900036682</v>
+      </c>
+      <c r="D29" s="80">
+        <v>1.0888824477765948</v>
+      </c>
+      <c r="E29" s="68">
+        <f t="shared" si="0"/>
+        <v>3.0766054046589684</v>
+      </c>
+      <c r="F29" s="80">
+        <f t="shared" si="1"/>
+        <v>0.14505791729210721</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="77">
+        <v>0.82397340578080414</v>
+      </c>
+      <c r="J29" s="68">
+        <v>7.5065357900036682</v>
+      </c>
+      <c r="K29" s="80">
+        <v>1.0888824477765948</v>
+      </c>
+      <c r="L29" s="68">
+        <f t="shared" si="2"/>
+        <v>9.1101675580056032</v>
+      </c>
+      <c r="M29" s="80">
+        <f t="shared" si="3"/>
+        <v>0.14505791729210721</v>
+      </c>
+      <c r="O29" s="82">
+        <v>9.1101675580056032</v>
+      </c>
+      <c r="P29" s="81">
+        <v>1.3215019321464152</v>
+      </c>
+      <c r="R29" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29">
+        <v>2.0862998921251346</v>
+      </c>
+      <c r="T29" s="68">
+        <v>7.5065357900036682</v>
+      </c>
+      <c r="U29" s="80">
+        <v>1.0888824477765948</v>
+      </c>
+      <c r="V29" s="11">
+        <f t="shared" si="4"/>
+        <v>3.59801379386422</v>
+      </c>
+      <c r="W29" s="11">
+        <f t="shared" si="5"/>
+        <v>0.52192038732621693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="72">
+        <v>2.1221763085399448</v>
+      </c>
+      <c r="C30" s="68">
+        <v>3.5531424443474111</v>
+      </c>
+      <c r="D30" s="80">
+        <v>0.26634719878044932</v>
+      </c>
+      <c r="E30" s="68">
+        <f t="shared" si="0"/>
+        <v>1.6742918248823395</v>
+      </c>
+      <c r="F30" s="80">
+        <f t="shared" si="1"/>
+        <v>7.4961024769545387E-2</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="68">
+        <v>0.72244858791380839</v>
+      </c>
+      <c r="J30" s="68">
+        <v>3.5531424443474111</v>
+      </c>
+      <c r="K30" s="80">
+        <v>0.26634719878044932</v>
+      </c>
+      <c r="L30" s="68">
+        <f t="shared" si="2"/>
+        <v>4.9181941854266844</v>
+      </c>
+      <c r="M30" s="80">
+        <f t="shared" si="3"/>
+        <v>7.4961024769545387E-2</v>
+      </c>
+      <c r="O30" s="82">
+        <v>4.9181941854266844</v>
+      </c>
+      <c r="P30" s="81">
+        <v>0.36867287615520378</v>
+      </c>
+      <c r="R30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30">
+        <v>1.8872707659115424</v>
+      </c>
+      <c r="T30" s="68">
+        <v>3.5531424443474111</v>
+      </c>
+      <c r="U30" s="80">
+        <v>0.26634719878044932</v>
+      </c>
+      <c r="V30" s="11">
+        <f t="shared" si="4"/>
+        <v>1.8826882228694202</v>
+      </c>
+      <c r="W30" s="11">
+        <f t="shared" si="5"/>
+        <v>0.14112823850784598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31" s="70"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="80"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="80"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="81"/>
+      <c r="R31" s="70"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A32" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="72">
+        <v>2.2927226813590451</v>
+      </c>
+      <c r="C32" s="68">
+        <v>7.9418593758428644</v>
+      </c>
+      <c r="D32" s="80">
+        <v>0.41047703876362157</v>
+      </c>
+      <c r="E32" s="68">
+        <f t="shared" si="0"/>
+        <v>3.4639424298516603</v>
+      </c>
+      <c r="F32" s="80">
+        <f t="shared" si="1"/>
+        <v>5.1685256479381811E-2</v>
+      </c>
+      <c r="H32" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="68">
+        <v>0.83406275379335015</v>
+      </c>
+      <c r="J32" s="68">
+        <v>7.9418593758428644</v>
+      </c>
+      <c r="K32" s="80">
+        <v>0.41047703876362157</v>
+      </c>
+      <c r="L32" s="68">
+        <f t="shared" ref="L32:L33" si="6">J32/I32</f>
+        <v>9.5218966914935077</v>
+      </c>
+      <c r="M32" s="80">
+        <f t="shared" ref="M32:M33" si="7">K32/J32</f>
+        <v>5.1685256479381811E-2</v>
+      </c>
+      <c r="O32" s="82">
+        <v>9.5218966914935077</v>
+      </c>
+      <c r="P32" s="81">
+        <v>0.49214167267001901</v>
+      </c>
+      <c r="R32" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32">
+        <v>2.1084142394822005</v>
+      </c>
+      <c r="T32" s="68">
+        <v>7.9418593758428644</v>
+      </c>
+      <c r="U32" s="80">
+        <v>0.41047703876362157</v>
+      </c>
+      <c r="V32" s="11">
+        <f t="shared" si="4"/>
+        <v>3.766745275725933</v>
+      </c>
+      <c r="W32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.1946851956683946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A33" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="72">
+        <v>1.8431359044995408</v>
+      </c>
+      <c r="C33" s="68">
+        <v>2.7628546824985367</v>
+      </c>
+      <c r="D33" s="80">
+        <v>0.31211231066749945</v>
+      </c>
+      <c r="E33" s="68">
+        <f t="shared" si="0"/>
+        <v>1.4989967238735569</v>
+      </c>
+      <c r="F33" s="80">
+        <f t="shared" si="1"/>
+        <v>0.11296732783109911</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="68">
+        <v>0.74943084681141636</v>
+      </c>
+      <c r="J33" s="68">
+        <v>2.7628546824985367</v>
+      </c>
+      <c r="K33" s="80">
+        <v>0.31211231066749945</v>
+      </c>
+      <c r="L33" s="68">
+        <f t="shared" si="6"/>
+        <v>3.6866038998175505</v>
+      </c>
+      <c r="M33" s="80">
+        <f t="shared" si="7"/>
+        <v>0.11296732783109911</v>
+      </c>
+      <c r="O33" s="82">
+        <v>3.6866038998175505</v>
+      </c>
+      <c r="P33" s="81">
+        <v>0.41646579133409767</v>
+      </c>
+      <c r="R33" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="S33">
+        <v>1.5436893203883495</v>
+      </c>
+      <c r="T33" s="68">
+        <v>2.7628546824985367</v>
+      </c>
+      <c r="U33" s="80">
+        <v>0.31211231066749945</v>
+      </c>
+      <c r="V33" s="11">
+        <f t="shared" si="4"/>
+        <v>1.7897737880336433</v>
+      </c>
+      <c r="W33" s="11">
+        <f t="shared" si="5"/>
+        <v>0.20218596225630467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A34" s="70"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="80"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="80"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="81"/>
+      <c r="R34" s="70"/>
+      <c r="S34">
+        <v>3.7006472491909386</v>
+      </c>
+      <c r="T34" s="68"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A35" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="72">
+        <v>2.3636822773186408</v>
+      </c>
+      <c r="C35" s="68">
+        <v>7.8284115477354668</v>
+      </c>
+      <c r="D35" s="80">
+        <v>1.1371447451213033</v>
+      </c>
+      <c r="E35" s="68">
+        <f t="shared" si="0"/>
+        <v>3.3119559353873949</v>
+      </c>
+      <c r="F35" s="80">
+        <f t="shared" si="1"/>
+        <v>0.14525868219718807</v>
+      </c>
+      <c r="H35" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="79">
+        <v>0.81549638487186027</v>
+      </c>
+      <c r="J35" s="68">
+        <v>7.8284115477354668</v>
+      </c>
+      <c r="K35" s="80">
+        <v>1.1371447451213033</v>
+      </c>
+      <c r="L35" s="68">
+        <f t="shared" ref="L35" si="8">J35/I35</f>
+        <v>9.5995662187583495</v>
+      </c>
+      <c r="M35" s="80">
+        <f t="shared" ref="M35" si="9">K35/J35</f>
+        <v>0.14525868219718807</v>
+      </c>
+      <c r="O35" s="82">
+        <v>9.5995662187583495</v>
+      </c>
+      <c r="P35" s="81">
+        <v>1.3944203386014813</v>
+      </c>
+      <c r="R35" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="S35">
+        <v>1.8354908306364617</v>
+      </c>
+      <c r="T35" s="68">
+        <v>7.8284115477354668</v>
+      </c>
+      <c r="U35" s="80">
+        <v>1.1371447451213033</v>
+      </c>
+      <c r="V35" s="11">
+        <f t="shared" si="4"/>
+        <v>4.2650235114609334</v>
+      </c>
+      <c r="W35" s="11">
+        <f t="shared" si="5"/>
+        <v>0.61953169481483872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>